--- a/Import Data/8x7.xlsx
+++ b/Import Data/8x7.xlsx
@@ -1,81 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F30F9C-A182-4F22-931F-3EBCC8E50C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{FC2E84DD-61E4-4D0E-BA58-0BB00B92A773}"/>
+    <workbookView xWindow="192" yWindow="84" windowWidth="10500" windowHeight="5856"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="48">
   <si>
-    <t>advance</t>
+    <t>8x7</t>
+  </si>
+  <si>
+    <t>(8x7.dat)</t>
   </si>
   <si>
     <t>======</t>
   </si>
   <si>
+    <t>PERFORMANCE</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>(versus</t>
+  </si>
+  <si>
+    <t>advance</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>MPH)</t>
+  </si>
+  <si>
+    <t>DEFINITIONS:</t>
+  </si>
+  <si>
+    <t>J=V/nD</t>
+  </si>
+  <si>
+    <t>(advance</t>
+  </si>
+  <si>
     <t>ratio)</t>
+  </si>
+  <si>
+    <t>Ct=T/(rho</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>n**2</t>
+  </si>
+  <si>
+    <t>D**4)</t>
+  </si>
+  <si>
+    <t>(thrust</t>
   </si>
   <si>
     <t>coef.)</t>
   </si>
   <si>
+    <t>Cp=P/(rho</t>
+  </si>
+  <si>
+    <t>n**3</t>
+  </si>
+  <si>
+    <t>D**5)</t>
+  </si>
+  <si>
+    <t>(power</t>
+  </si>
+  <si>
+    <t>Pe=Ct*J/Cp</t>
+  </si>
+  <si>
+    <t>(efficiency)</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>(model</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
     <t>PROP</t>
   </si>
   <si>
-    <t>V</t>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
   <si>
     <t>J</t>
@@ -102,6 +141,12 @@
     <t>(mph)</t>
   </si>
   <si>
+    <t>(Adv</t>
+  </si>
+  <si>
+    <t>Ratio)</t>
+  </si>
+  <si>
     <t>(Hp)</t>
   </si>
   <si>
@@ -109,93 +154,6 @@
   </si>
   <si>
     <t>(Lbf)</t>
-  </si>
-  <si>
-    <t>PERFORMANCE</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>(versus</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>MPH)</t>
-  </si>
-  <si>
-    <t>DEFINITIONS:</t>
-  </si>
-  <si>
-    <t>J=V/nD</t>
-  </si>
-  <si>
-    <t>(advance</t>
-  </si>
-  <si>
-    <t>Ct=T/(rho</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>n**2</t>
-  </si>
-  <si>
-    <t>D**4)</t>
-  </si>
-  <si>
-    <t>(thrust</t>
-  </si>
-  <si>
-    <t>Cp=P/(rho</t>
-  </si>
-  <si>
-    <t>n**3</t>
-  </si>
-  <si>
-    <t>D**5)</t>
-  </si>
-  <si>
-    <t>(power</t>
-  </si>
-  <si>
-    <t>Pe=Ct*J/Cp</t>
-  </si>
-  <si>
-    <t>(efficiency)</t>
-  </si>
-  <si>
-    <t>(model</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>RPM</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>8x7</t>
-  </si>
-  <si>
-    <t>(8x7.dat)</t>
-  </si>
-  <si>
-    <t>(Adv</t>
-  </si>
-  <si>
-    <t>Ratio)</t>
   </si>
   <si>
     <t>0.56-NaN</t>
@@ -207,8 +165,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,15 +203,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -268,44 +218,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -332,32 +282,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -384,24 +316,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,343 +327,367 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048CACB5-9C1E-4FE4-9A56-F189F3CC593B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I935"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <v>41998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>0</v>
       </c>
@@ -775,7 +713,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>0.3</v>
       </c>
@@ -801,7 +739,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>0.6</v>
       </c>
@@ -827,7 +765,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>0.9</v>
       </c>
@@ -853,7 +791,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1.2</v>
       </c>
@@ -879,7 +817,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1.4</v>
       </c>
@@ -905,7 +843,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1.7</v>
       </c>
@@ -931,7 +869,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2</v>
       </c>
@@ -957,7 +895,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2.2999999999999998</v>
       </c>
@@ -983,7 +921,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2.6</v>
       </c>
@@ -1009,7 +947,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2.9</v>
       </c>
@@ -1035,7 +973,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>3.2</v>
       </c>
@@ -1061,7 +999,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>3.5</v>
       </c>
@@ -1087,7 +1025,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>3.8</v>
       </c>
@@ -1113,7 +1051,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1139,7 +1077,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>4.3</v>
       </c>
@@ -1165,7 +1103,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>4.5999999999999996</v>
       </c>
@@ -1191,7 +1129,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>4.9000000000000004</v>
       </c>
@@ -1217,7 +1155,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>5.2</v>
       </c>
@@ -1243,7 +1181,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>5.5</v>
       </c>
@@ -1269,7 +1207,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>5.8</v>
       </c>
@@ -1295,7 +1233,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>6.1</v>
       </c>
@@ -1321,7 +1259,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>6.4</v>
       </c>
@@ -1347,7 +1285,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>6.6</v>
       </c>
@@ -1373,7 +1311,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>6.9</v>
       </c>
@@ -1399,7 +1337,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>7.2</v>
       </c>
@@ -1425,7 +1363,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>7.5</v>
       </c>
@@ -1451,7 +1389,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>7.8</v>
       </c>
@@ -1477,7 +1415,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>8.1</v>
       </c>
@@ -1503,7 +1441,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>8.4</v>
       </c>
@@ -1529,67 +1467,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D51">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" t="s">
         <v>44</v>
       </c>
-      <c r="C54" t="s">
+      <c r="F54" t="s">
         <v>45</v>
       </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1615,7 +1553,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>0.6</v>
       </c>
@@ -1641,7 +1579,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>1.2</v>
       </c>
@@ -1667,7 +1605,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>1.7</v>
       </c>
@@ -1693,7 +1631,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>2.2999999999999998</v>
       </c>
@@ -1719,7 +1657,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>2.9</v>
       </c>
@@ -1745,7 +1683,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>3.5</v>
       </c>
@@ -1771,7 +1709,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1797,7 +1735,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>4.5999999999999996</v>
       </c>
@@ -1823,7 +1761,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>5.2</v>
       </c>
@@ -1849,7 +1787,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>5.8</v>
       </c>
@@ -1875,7 +1813,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>6.3</v>
       </c>
@@ -1901,7 +1839,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>6.9</v>
       </c>
@@ -1927,7 +1865,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>7.5</v>
       </c>
@@ -1953,7 +1891,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>8.1</v>
       </c>
@@ -1979,7 +1917,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>8.6999999999999993</v>
       </c>
@@ -2005,7 +1943,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>9.1999999999999993</v>
       </c>
@@ -2031,7 +1969,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>9.8000000000000007</v>
       </c>
@@ -2057,7 +1995,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>10.4</v>
       </c>
@@ -2083,7 +2021,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>11</v>
       </c>
@@ -2109,7 +2047,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>11.5</v>
       </c>
@@ -2135,7 +2073,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>12.1</v>
       </c>
@@ -2161,7 +2099,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>12.7</v>
       </c>
@@ -2187,7 +2125,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>13.3</v>
       </c>
@@ -2213,7 +2151,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>13.8</v>
       </c>
@@ -2239,7 +2177,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>14.4</v>
       </c>
@@ -2265,7 +2203,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>15</v>
       </c>
@@ -2291,7 +2229,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>15.6</v>
       </c>
@@ -2317,7 +2255,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>16.2</v>
       </c>
@@ -2343,7 +2281,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>16.7</v>
       </c>
@@ -2369,67 +2307,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D88">
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" t="s">
         <v>44</v>
       </c>
-      <c r="C91" t="s">
+      <c r="F91" t="s">
         <v>45</v>
       </c>
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2455,7 +2393,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>0.9</v>
       </c>
@@ -2481,7 +2419,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>1.7</v>
       </c>
@@ -2507,7 +2445,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>2.6</v>
       </c>
@@ -2533,7 +2471,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>3.5</v>
       </c>
@@ -2559,7 +2497,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>4.3</v>
       </c>
@@ -2585,7 +2523,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>5.2</v>
       </c>
@@ -2611,7 +2549,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>6.1</v>
       </c>
@@ -2637,7 +2575,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>6.9</v>
       </c>
@@ -2663,7 +2601,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>7.8</v>
       </c>
@@ -2689,7 +2627,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>8.6</v>
       </c>
@@ -2715,7 +2653,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>9.5</v>
       </c>
@@ -2741,7 +2679,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>10.4</v>
       </c>
@@ -2767,7 +2705,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>11.2</v>
       </c>
@@ -2793,7 +2731,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>12.1</v>
       </c>
@@ -2819,7 +2757,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>13</v>
       </c>
@@ -2845,7 +2783,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>13.8</v>
       </c>
@@ -2871,7 +2809,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>14.7</v>
       </c>
@@ -2897,7 +2835,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>15.6</v>
       </c>
@@ -2923,7 +2861,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>16.399999999999999</v>
       </c>
@@ -2949,7 +2887,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>17.3</v>
       </c>
@@ -2975,7 +2913,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>18.2</v>
       </c>
@@ -3001,7 +2939,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>19</v>
       </c>
@@ -3027,7 +2965,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>19.899999999999999</v>
       </c>
@@ -3053,7 +2991,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>20.8</v>
       </c>
@@ -3079,7 +3017,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>21.6</v>
       </c>
@@ -3105,7 +3043,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>22.5</v>
       </c>
@@ -3131,7 +3069,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>23.3</v>
       </c>
@@ -3157,7 +3095,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>24.2</v>
       </c>
@@ -3183,7 +3121,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>25.1</v>
       </c>
@@ -3209,67 +3147,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D125">
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B128" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" t="s">
         <v>44</v>
       </c>
-      <c r="C128" t="s">
+      <c r="F128" t="s">
         <v>45</v>
       </c>
-      <c r="D128" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" t="s">
-        <v>15</v>
-      </c>
-      <c r="F128" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3295,7 +3233,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>1.2</v>
       </c>
@@ -3321,7 +3259,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>2.2999999999999998</v>
       </c>
@@ -3347,7 +3285,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>3.5</v>
       </c>
@@ -3373,7 +3311,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>4.5999999999999996</v>
       </c>
@@ -3399,7 +3337,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>5.8</v>
       </c>
@@ -3425,7 +3363,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>6.9</v>
       </c>
@@ -3451,7 +3389,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>8.1</v>
       </c>
@@ -3477,7 +3415,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>9.1999999999999993</v>
       </c>
@@ -3503,7 +3441,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>10.4</v>
       </c>
@@ -3529,7 +3467,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>11.5</v>
       </c>
@@ -3555,7 +3493,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>12.7</v>
       </c>
@@ -3581,7 +3519,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>13.8</v>
       </c>
@@ -3607,7 +3545,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>15</v>
       </c>
@@ -3633,7 +3571,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>16.100000000000001</v>
       </c>
@@ -3659,7 +3597,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>17.3</v>
       </c>
@@ -3685,7 +3623,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>18.399999999999999</v>
       </c>
@@ -3711,7 +3649,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>19.600000000000001</v>
       </c>
@@ -3737,7 +3675,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>20.7</v>
       </c>
@@ -3763,7 +3701,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>21.9</v>
       </c>
@@ -3789,7 +3727,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>23.1</v>
       </c>
@@ -3815,7 +3753,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>24.2</v>
       </c>
@@ -3841,7 +3779,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>25.4</v>
       </c>
@@ -3867,7 +3805,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>26.5</v>
       </c>
@@ -3893,7 +3831,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>27.7</v>
       </c>
@@ -3919,7 +3857,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>28.8</v>
       </c>
@@ -3945,7 +3883,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>30</v>
       </c>
@@ -3971,7 +3909,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>31.1</v>
       </c>
@@ -3997,7 +3935,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>32.299999999999997</v>
       </c>
@@ -4023,7 +3961,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>33.4</v>
       </c>
@@ -4049,67 +3987,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C162" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D162">
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D164" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E164" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H164" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B165" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" t="s">
+        <v>42</v>
+      </c>
+      <c r="D165" t="s">
+        <v>43</v>
+      </c>
+      <c r="E165" t="s">
         <v>44</v>
       </c>
-      <c r="C165" t="s">
+      <c r="F165" t="s">
         <v>45</v>
       </c>
-      <c r="D165" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" t="s">
-        <v>15</v>
-      </c>
-      <c r="F165" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4135,7 +4073,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>1.4</v>
       </c>
@@ -4161,7 +4099,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>2.9</v>
       </c>
@@ -4187,7 +4125,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>4.3</v>
       </c>
@@ -4213,7 +4151,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>5.8</v>
       </c>
@@ -4239,7 +4177,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>7.2</v>
       </c>
@@ -4265,7 +4203,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>8.6</v>
       </c>
@@ -4291,7 +4229,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>10.1</v>
       </c>
@@ -4317,7 +4255,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>11.5</v>
       </c>
@@ -4343,7 +4281,7 @@
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>13</v>
       </c>
@@ -4369,7 +4307,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>14.4</v>
       </c>
@@ -4395,7 +4333,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>15.8</v>
       </c>
@@ -4421,7 +4359,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>17.3</v>
       </c>
@@ -4447,7 +4385,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>18.7</v>
       </c>
@@ -4473,7 +4411,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>20.2</v>
       </c>
@@ -4499,7 +4437,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>21.6</v>
       </c>
@@ -4525,7 +4463,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>23</v>
       </c>
@@ -4551,7 +4489,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>24.5</v>
       </c>
@@ -4577,7 +4515,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>25.9</v>
       </c>
@@ -4603,7 +4541,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>27.4</v>
       </c>
@@ -4629,7 +4567,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>28.8</v>
       </c>
@@ -4655,7 +4593,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>30.3</v>
       </c>
@@ -4681,7 +4619,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>31.7</v>
       </c>
@@ -4707,7 +4645,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>33.1</v>
       </c>
@@ -4733,7 +4671,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>34.6</v>
       </c>
@@ -4759,7 +4697,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>36</v>
       </c>
@@ -4785,7 +4723,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>37.5</v>
       </c>
@@ -4811,7 +4749,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>38.9</v>
       </c>
@@ -4837,7 +4775,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>40.299999999999997</v>
       </c>
@@ -4863,7 +4801,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>41.8</v>
       </c>
@@ -4889,67 +4827,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B199" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C199" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D199">
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E201" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F201" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G201" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H201" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B202" t="s">
+        <v>41</v>
+      </c>
+      <c r="C202" t="s">
+        <v>42</v>
+      </c>
+      <c r="D202" t="s">
+        <v>43</v>
+      </c>
+      <c r="E202" t="s">
         <v>44</v>
       </c>
-      <c r="C202" t="s">
+      <c r="F202" t="s">
         <v>45</v>
       </c>
-      <c r="D202" t="s">
-        <v>14</v>
-      </c>
-      <c r="E202" t="s">
-        <v>15</v>
-      </c>
-      <c r="F202" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4975,7 +4913,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>1.7</v>
       </c>
@@ -5001,7 +4939,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>3.5</v>
       </c>
@@ -5027,7 +4965,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>5.2</v>
       </c>
@@ -5053,7 +4991,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>6.9</v>
       </c>
@@ -5079,7 +5017,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>8.6</v>
       </c>
@@ -5105,7 +5043,7 @@
         <v>0.52200000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>10.4</v>
       </c>
@@ -5131,7 +5069,7 @@
         <v>0.52100000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>12.1</v>
       </c>
@@ -5157,7 +5095,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>13.8</v>
       </c>
@@ -5183,7 +5121,7 @@
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>15.6</v>
       </c>
@@ -5209,7 +5147,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>17.3</v>
       </c>
@@ -5235,7 +5173,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>19</v>
       </c>
@@ -5261,7 +5199,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>20.7</v>
       </c>
@@ -5287,7 +5225,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>22.5</v>
       </c>
@@ -5313,7 +5251,7 @@
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>24.2</v>
       </c>
@@ -5339,7 +5277,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>25.9</v>
       </c>
@@ -5365,7 +5303,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>27.7</v>
       </c>
@@ -5391,7 +5329,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>29.4</v>
       </c>
@@ -5417,7 +5355,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>31.1</v>
       </c>
@@ -5443,7 +5381,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>32.799999999999997</v>
       </c>
@@ -5469,7 +5407,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>34.6</v>
       </c>
@@ -5495,7 +5433,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>36.299999999999997</v>
       </c>
@@ -5521,7 +5459,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>38</v>
       </c>
@@ -5547,7 +5485,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>39.799999999999997</v>
       </c>
@@ -5573,7 +5511,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>41.5</v>
       </c>
@@ -5599,7 +5537,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>43.2</v>
       </c>
@@ -5625,7 +5563,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>44.9</v>
       </c>
@@ -5651,7 +5589,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>46.7</v>
       </c>
@@ -5677,7 +5615,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>48.4</v>
       </c>
@@ -5703,7 +5641,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>50.1</v>
       </c>
@@ -5729,67 +5667,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B236" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C236" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D236">
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C238" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D238" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E238" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F238" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H238" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B239" t="s">
+        <v>41</v>
+      </c>
+      <c r="C239" t="s">
+        <v>42</v>
+      </c>
+      <c r="D239" t="s">
+        <v>43</v>
+      </c>
+      <c r="E239" t="s">
         <v>44</v>
       </c>
-      <c r="C239" t="s">
+      <c r="F239" t="s">
         <v>45</v>
       </c>
-      <c r="D239" t="s">
-        <v>14</v>
-      </c>
-      <c r="E239" t="s">
-        <v>15</v>
-      </c>
-      <c r="F239" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5815,7 +5753,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>2</v>
       </c>
@@ -5841,7 +5779,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>4</v>
       </c>
@@ -5867,7 +5805,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>6</v>
       </c>
@@ -5893,7 +5831,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>8.1</v>
       </c>
@@ -5919,7 +5857,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>10.1</v>
       </c>
@@ -5945,7 +5883,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>12.1</v>
       </c>
@@ -5971,7 +5909,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>14.1</v>
       </c>
@@ -5997,7 +5935,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>16.100000000000001</v>
       </c>
@@ -6023,7 +5961,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>18.100000000000001</v>
       </c>
@@ -6049,7 +5987,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>20.2</v>
       </c>
@@ -6075,7 +6013,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>22.2</v>
       </c>
@@ -6101,7 +6039,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>24.2</v>
       </c>
@@ -6127,7 +6065,7 @@
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>26.2</v>
       </c>
@@ -6153,7 +6091,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>28.2</v>
       </c>
@@ -6179,7 +6117,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>30.2</v>
       </c>
@@ -6205,7 +6143,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>32.200000000000003</v>
       </c>
@@ -6231,7 +6169,7 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>34.299999999999997</v>
       </c>
@@ -6257,7 +6195,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>36.299999999999997</v>
       </c>
@@ -6283,7 +6221,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>38.299999999999997</v>
       </c>
@@ -6309,7 +6247,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>40.299999999999997</v>
       </c>
@@ -6335,7 +6273,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>42.3</v>
       </c>
@@ -6361,7 +6299,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>44.3</v>
       </c>
@@ -6387,7 +6325,7 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>46.3</v>
       </c>
@@ -6413,7 +6351,7 @@
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>48.4</v>
       </c>
@@ -6439,7 +6377,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>50.4</v>
       </c>
@@ -6465,7 +6403,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>52.4</v>
       </c>
@@ -6491,7 +6429,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>54.4</v>
       </c>
@@ -6517,7 +6455,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>56.4</v>
       </c>
@@ -6543,7 +6481,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>58.4</v>
       </c>
@@ -6569,67 +6507,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B273" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C273" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D273">
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C275" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D275" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E275" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F275" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G275" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H275" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B276" t="s">
+        <v>41</v>
+      </c>
+      <c r="C276" t="s">
+        <v>42</v>
+      </c>
+      <c r="D276" t="s">
+        <v>43</v>
+      </c>
+      <c r="E276" t="s">
         <v>44</v>
       </c>
-      <c r="C276" t="s">
+      <c r="F276" t="s">
         <v>45</v>
       </c>
-      <c r="D276" t="s">
-        <v>14</v>
-      </c>
-      <c r="E276" t="s">
-        <v>15</v>
-      </c>
-      <c r="F276" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6655,7 +6593,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>2.2999999999999998</v>
       </c>
@@ -6681,7 +6619,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>4.5999999999999996</v>
       </c>
@@ -6707,7 +6645,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>6.9</v>
       </c>
@@ -6733,7 +6671,7 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>9.1999999999999993</v>
       </c>
@@ -6759,7 +6697,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>11.5</v>
       </c>
@@ -6785,7 +6723,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>13.8</v>
       </c>
@@ -6811,7 +6749,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>16.100000000000001</v>
       </c>
@@ -6837,7 +6775,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>18.399999999999999</v>
       </c>
@@ -6863,7 +6801,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>20.7</v>
       </c>
@@ -6889,7 +6827,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>23</v>
       </c>
@@ -6915,7 +6853,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>25.3</v>
       </c>
@@ -6941,7 +6879,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>27.6</v>
       </c>
@@ -6967,7 +6905,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>29.9</v>
       </c>
@@ -6993,7 +6931,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>32.200000000000003</v>
       </c>
@@ -7019,7 +6957,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>34.5</v>
       </c>
@@ -7045,7 +6983,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>36.799999999999997</v>
       </c>
@@ -7071,7 +7009,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>39.200000000000003</v>
       </c>
@@ -7097,7 +7035,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>41.5</v>
       </c>
@@ -7123,7 +7061,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>43.8</v>
       </c>
@@ -7149,7 +7087,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>46.1</v>
       </c>
@@ -7175,7 +7113,7 @@
         <v>0.55900000000000005</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>48.4</v>
       </c>
@@ -7201,7 +7139,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>50.7</v>
       </c>
@@ -7227,7 +7165,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>53</v>
       </c>
@@ -7253,7 +7191,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>55.3</v>
       </c>
@@ -7279,7 +7217,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>57.6</v>
       </c>
@@ -7305,7 +7243,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>59.9</v>
       </c>
@@ -7331,7 +7269,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>62.2</v>
       </c>
@@ -7357,7 +7295,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>64.5</v>
       </c>
@@ -7383,7 +7321,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>66.8</v>
       </c>
@@ -7409,67 +7347,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B310" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C310" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D310">
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B312" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C312" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D312" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E312" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F312" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G312" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H312" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B313" t="s">
+        <v>41</v>
+      </c>
+      <c r="C313" t="s">
+        <v>42</v>
+      </c>
+      <c r="D313" t="s">
+        <v>43</v>
+      </c>
+      <c r="E313" t="s">
         <v>44</v>
       </c>
-      <c r="C313" t="s">
+      <c r="F313" t="s">
         <v>45</v>
       </c>
-      <c r="D313" t="s">
-        <v>14</v>
-      </c>
-      <c r="E313" t="s">
-        <v>15</v>
-      </c>
-      <c r="F313" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7495,7 +7433,7 @@
         <v>1.1779999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>2.6</v>
       </c>
@@ -7521,7 +7459,7 @@
         <v>1.1779999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>5.2</v>
       </c>
@@ -7547,7 +7485,7 @@
         <v>1.1779999999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>7.8</v>
       </c>
@@ -7573,7 +7511,7 @@
         <v>1.177</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>10.4</v>
       </c>
@@ -7599,7 +7537,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>13</v>
       </c>
@@ -7625,7 +7563,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>15.5</v>
       </c>
@@ -7651,7 +7589,7 @@
         <v>1.1719999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>18.100000000000001</v>
       </c>
@@ -7677,7 +7615,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>20.7</v>
       </c>
@@ -7703,7 +7641,7 @@
         <v>1.165</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>23.3</v>
       </c>
@@ -7729,7 +7667,7 @@
         <v>1.159</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>25.9</v>
       </c>
@@ -7755,7 +7693,7 @@
         <v>1.151</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>28.5</v>
       </c>
@@ -7781,7 +7719,7 @@
         <v>1.139</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>31.1</v>
       </c>
@@ -7807,7 +7745,7 @@
         <v>1.1220000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>33.700000000000003</v>
       </c>
@@ -7833,7 +7771,7 @@
         <v>1.099</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>36.299999999999997</v>
       </c>
@@ -7859,7 +7797,7 @@
         <v>1.069</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>38.9</v>
       </c>
@@ -7885,7 +7823,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>41.4</v>
       </c>
@@ -7911,7 +7849,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>44</v>
       </c>
@@ -7937,7 +7875,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>46.6</v>
       </c>
@@ -7963,7 +7901,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>49.2</v>
       </c>
@@ -7989,7 +7927,7 @@
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>51.8</v>
       </c>
@@ -8015,7 +7953,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>54.4</v>
       </c>
@@ -8041,7 +7979,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>57</v>
       </c>
@@ -8067,7 +8005,7 @@
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>59.6</v>
       </c>
@@ -8093,7 +8031,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>62.2</v>
       </c>
@@ -8119,7 +8057,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>64.8</v>
       </c>
@@ -8145,7 +8083,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>67.400000000000006</v>
       </c>
@@ -8171,7 +8109,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>69.900000000000006</v>
       </c>
@@ -8197,7 +8135,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>72.5</v>
       </c>
@@ -8223,7 +8161,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>75.099999999999994</v>
       </c>
@@ -8249,67 +8187,67 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:8">
       <c r="A347" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B347" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C347" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D347">
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:8">
       <c r="A349" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B349" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C349" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D349" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E349" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F349" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G349" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H349" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B350" t="s">
+        <v>41</v>
+      </c>
+      <c r="C350" t="s">
+        <v>42</v>
+      </c>
+      <c r="D350" t="s">
+        <v>43</v>
+      </c>
+      <c r="E350" t="s">
         <v>44</v>
       </c>
-      <c r="C350" t="s">
+      <c r="F350" t="s">
         <v>45</v>
       </c>
-      <c r="D350" t="s">
-        <v>14</v>
-      </c>
-      <c r="E350" t="s">
-        <v>15</v>
-      </c>
-      <c r="F350" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8335,7 +8273,7 @@
         <v>1.4530000000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>2.9</v>
       </c>
@@ -8361,7 +8299,7 @@
         <v>1.452</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>5.8</v>
       </c>
@@ -8387,7 +8325,7 @@
         <v>1.452</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>8.6</v>
       </c>
@@ -8413,7 +8351,7 @@
         <v>1.4510000000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>11.5</v>
       </c>
@@ -8439,7 +8377,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>14.4</v>
       </c>
@@ -8465,7 +8403,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>17.3</v>
       </c>
@@ -8491,7 +8429,7 @@
         <v>1.446</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>20.2</v>
       </c>
@@ -8517,7 +8455,7 @@
         <v>1.4419999999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>23</v>
       </c>
@@ -8543,7 +8481,7 @@
         <v>1.4370000000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>25.9</v>
       </c>
@@ -8569,7 +8507,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>28.8</v>
       </c>
@@ -8595,7 +8533,7 @@
         <v>1.421</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>31.7</v>
       </c>
@@ -8621,7 +8559,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>34.5</v>
       </c>
@@ -8647,7 +8585,7 @@
         <v>1.387</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>37.4</v>
       </c>
@@ -8673,7 +8611,7 @@
         <v>1.359</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>40.299999999999997</v>
       </c>
@@ -8699,7 +8637,7 @@
         <v>1.323</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>43.2</v>
       </c>
@@ -8725,7 +8663,7 @@
         <v>1.276</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>46.1</v>
       </c>
@@ -8751,7 +8689,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>48.9</v>
       </c>
@@ -8777,7 +8715,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>51.8</v>
       </c>
@@ -8803,7 +8741,7 @@
         <v>1.054</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>54.7</v>
       </c>
@@ -8829,7 +8767,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>57.6</v>
       </c>
@@ -8855,7 +8793,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>60.5</v>
       </c>
@@ -8881,7 +8819,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>63.3</v>
       </c>
@@ -8907,7 +8845,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>66.2</v>
       </c>
@@ -8933,7 +8871,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>69.099999999999994</v>
       </c>
@@ -8959,7 +8897,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>72</v>
       </c>
@@ -8985,7 +8923,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>74.900000000000006</v>
       </c>
@@ -9011,7 +8949,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>77.7</v>
       </c>
@@ -9037,7 +8975,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>80.599999999999994</v>
       </c>
@@ -9063,7 +9001,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>83.5</v>
       </c>
@@ -9089,67 +9027,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:8">
       <c r="A384" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B384" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C384" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D384">
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:8">
       <c r="A386" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B386" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C386" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D386" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E386" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F386" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G386" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H386" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B387" t="s">
+        <v>41</v>
+      </c>
+      <c r="C387" t="s">
+        <v>42</v>
+      </c>
+      <c r="D387" t="s">
+        <v>43</v>
+      </c>
+      <c r="E387" t="s">
         <v>44</v>
       </c>
-      <c r="C387" t="s">
+      <c r="F387" t="s">
         <v>45</v>
       </c>
-      <c r="D387" t="s">
-        <v>14</v>
-      </c>
-      <c r="E387" t="s">
-        <v>15</v>
-      </c>
-      <c r="F387" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9175,7 +9113,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>3.2</v>
       </c>
@@ -9201,7 +9139,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>6.3</v>
       </c>
@@ -9227,7 +9165,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>9.5</v>
       </c>
@@ -9253,7 +9191,7 @@
         <v>1.754</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>12.7</v>
       </c>
@@ -9279,7 +9217,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>15.8</v>
       </c>
@@ -9305,7 +9243,7 @@
         <v>1.7509999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>19</v>
       </c>
@@ -9331,7 +9269,7 @@
         <v>1.748</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>22.2</v>
       </c>
@@ -9357,7 +9295,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>25.3</v>
       </c>
@@ -9383,7 +9321,7 @@
         <v>1.7390000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>28.5</v>
       </c>
@@ -9409,7 +9347,7 @@
         <v>1.7310000000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>31.7</v>
       </c>
@@ -9435,7 +9373,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>34.799999999999997</v>
       </c>
@@ -9461,7 +9399,7 @@
         <v>1.704</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>38</v>
       </c>
@@ -9487,7 +9425,7 @@
         <v>1.681</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>41.2</v>
       </c>
@@ -9513,7 +9451,7 @@
         <v>1.649</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>44.3</v>
       </c>
@@ -9539,7 +9477,7 @@
         <v>1.6060000000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>47.5</v>
       </c>
@@ -9565,7 +9503,7 @@
         <v>1.5509999999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>50.7</v>
       </c>
@@ -9591,7 +9529,7 @@
         <v>1.4790000000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>53.8</v>
       </c>
@@ -9617,7 +9555,7 @@
         <v>1.3859999999999999</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>57</v>
       </c>
@@ -9643,7 +9581,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>60.2</v>
       </c>
@@ -9669,7 +9607,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>63.3</v>
       </c>
@@ -9695,7 +9633,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>66.5</v>
       </c>
@@ -9721,7 +9659,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>69.7</v>
       </c>
@@ -9747,7 +9685,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>72.8</v>
       </c>
@@ -9773,7 +9711,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>76</v>
       </c>
@@ -9799,7 +9737,7 @@
         <v>0.61399999999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>79.2</v>
       </c>
@@ -9825,7 +9763,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>82.3</v>
       </c>
@@ -9851,7 +9789,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>85.5</v>
       </c>
@@ -9877,7 +9815,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>88.7</v>
       </c>
@@ -9903,7 +9841,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>91.8</v>
       </c>
@@ -9929,67 +9867,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:8">
       <c r="A421" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B421" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C421" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D421">
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:8">
       <c r="A423" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B423" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C423" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D423" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E423" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F423" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G423" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H423" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B424" t="s">
+        <v>41</v>
+      </c>
+      <c r="C424" t="s">
+        <v>42</v>
+      </c>
+      <c r="D424" t="s">
+        <v>43</v>
+      </c>
+      <c r="E424" t="s">
         <v>44</v>
       </c>
-      <c r="C424" t="s">
+      <c r="F424" t="s">
         <v>45</v>
       </c>
-      <c r="D424" t="s">
-        <v>14</v>
-      </c>
-      <c r="E424" t="s">
-        <v>15</v>
-      </c>
-      <c r="F424" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>0</v>
       </c>
@@ -10015,7 +9953,7 @@
         <v>2.0880000000000001</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>3.5</v>
       </c>
@@ -10041,7 +9979,7 @@
         <v>2.0880000000000001</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>6.9</v>
       </c>
@@ -10067,7 +10005,7 @@
         <v>2.0870000000000002</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>10.4</v>
       </c>
@@ -10093,7 +10031,7 @@
         <v>2.0859999999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>13.8</v>
       </c>
@@ -10119,7 +10057,7 @@
         <v>2.085</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>17.3</v>
       </c>
@@ -10145,7 +10083,7 @@
         <v>2.0830000000000002</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>20.7</v>
       </c>
@@ -10171,7 +10109,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>24.2</v>
       </c>
@@ -10197,7 +10135,7 @@
         <v>2.0750000000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>27.6</v>
       </c>
@@ -10223,7 +10161,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>31.1</v>
       </c>
@@ -10249,7 +10187,7 @@
         <v>2.0609999999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>34.5</v>
       </c>
@@ -10275,7 +10213,7 @@
         <v>2.0489999999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>38</v>
       </c>
@@ -10301,7 +10239,7 @@
         <v>2.032</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>41.4</v>
       </c>
@@ -10327,7 +10265,7 @@
         <v>2.0059999999999998</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:8">
       <c r="A438">
         <v>44.9</v>
       </c>
@@ -10353,7 +10291,7 @@
         <v>1.9690000000000001</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>48.3</v>
       </c>
@@ -10379,7 +10317,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>51.8</v>
       </c>
@@ -10405,7 +10343,7 @@
         <v>1.8540000000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>55.3</v>
       </c>
@@ -10431,7 +10369,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>58.7</v>
       </c>
@@ -10457,7 +10395,7 @@
         <v>1.6579999999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>62.2</v>
       </c>
@@ -10483,7 +10421,7 @@
         <v>1.534</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>65.599999999999994</v>
       </c>
@@ -10509,7 +10447,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>69.099999999999994</v>
       </c>
@@ -10535,7 +10473,7 @@
         <v>1.278</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>72.5</v>
       </c>
@@ -10561,7 +10499,7 @@
         <v>1.1459999999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>76</v>
       </c>
@@ -10587,7 +10525,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>79.400000000000006</v>
       </c>
@@ -10613,7 +10551,7 @@
         <v>0.874</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>82.9</v>
       </c>
@@ -10639,7 +10577,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>86.3</v>
       </c>
@@ -10665,7 +10603,7 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>89.8</v>
       </c>
@@ -10691,7 +10629,7 @@
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>93.2</v>
       </c>
@@ -10717,7 +10655,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>96.7</v>
       </c>
@@ -10743,7 +10681,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>100.1</v>
       </c>
@@ -10769,67 +10707,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:8">
       <c r="A458" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B458" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C458" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D458">
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:8">
       <c r="A460" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B460" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C460" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D460" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E460" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F460" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G460" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H460" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
       <c r="A461" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B461" t="s">
+        <v>41</v>
+      </c>
+      <c r="C461" t="s">
+        <v>42</v>
+      </c>
+      <c r="D461" t="s">
+        <v>43</v>
+      </c>
+      <c r="E461" t="s">
         <v>44</v>
       </c>
-      <c r="C461" t="s">
+      <c r="F461" t="s">
         <v>45</v>
       </c>
-      <c r="D461" t="s">
-        <v>14</v>
-      </c>
-      <c r="E461" t="s">
-        <v>15</v>
-      </c>
-      <c r="F461" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10855,7 +10793,7 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>3.7</v>
       </c>
@@ -10881,7 +10819,7 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>7.5</v>
       </c>
@@ -10907,7 +10845,7 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>11.2</v>
       </c>
@@ -10933,7 +10871,7 @@
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>15</v>
       </c>
@@ -10959,7 +10897,7 @@
         <v>2.4460000000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>18.7</v>
       </c>
@@ -10985,7 +10923,7 @@
         <v>2.444</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>22.4</v>
       </c>
@@ -11011,7 +10949,7 @@
         <v>2.4409999999999998</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>26.2</v>
       </c>
@@ -11037,7 +10975,7 @@
         <v>2.4359999999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>29.9</v>
       </c>
@@ -11063,7 +11001,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>33.700000000000003</v>
       </c>
@@ -11089,7 +11027,7 @@
         <v>2.4209999999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>37.4</v>
       </c>
@@ -11115,7 +11053,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>41.1</v>
       </c>
@@ -11141,7 +11079,7 @@
         <v>2.3889999999999998</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>44.9</v>
       </c>
@@ -11167,7 +11105,7 @@
         <v>2.3610000000000002</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>48.6</v>
       </c>
@@ -11193,7 +11131,7 @@
         <v>2.319</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>52.4</v>
       </c>
@@ -11219,7 +11157,7 @@
         <v>2.262</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>56.1</v>
       </c>
@@ -11245,7 +11183,7 @@
         <v>2.1869999999999998</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>59.8</v>
       </c>
@@ -11271,7 +11209,7 @@
         <v>2.0880000000000001</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>63.6</v>
       </c>
@@ -11297,7 +11235,7 @@
         <v>1.9590000000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>67.3</v>
       </c>
@@ -11323,7 +11261,7 @@
         <v>1.8129999999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>71</v>
       </c>
@@ -11349,7 +11287,7 @@
         <v>1.663</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>74.8</v>
       </c>
@@ -11375,7 +11313,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>78.5</v>
       </c>
@@ -11401,7 +11339,7 @@
         <v>1.3540000000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>82.3</v>
       </c>
@@ -11427,7 +11365,7 @@
         <v>1.1950000000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>86</v>
       </c>
@@ -11453,7 +11391,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>89.7</v>
       </c>
@@ -11479,7 +11417,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>93.5</v>
       </c>
@@ -11505,7 +11443,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>97.2</v>
       </c>
@@ -11531,7 +11469,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>101</v>
       </c>
@@ -11557,7 +11495,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>104.7</v>
       </c>
@@ -11583,7 +11521,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>108.4</v>
       </c>
@@ -11609,67 +11547,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:8">
       <c r="A495" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B495" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C495" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D495">
         <v>13999</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:8">
       <c r="A497" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B497" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C497" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D497" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E497" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F497" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G497" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H497" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
       <c r="A498" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B498" t="s">
+        <v>41</v>
+      </c>
+      <c r="C498" t="s">
+        <v>42</v>
+      </c>
+      <c r="D498" t="s">
+        <v>43</v>
+      </c>
+      <c r="E498" t="s">
         <v>44</v>
       </c>
-      <c r="C498" t="s">
+      <c r="F498" t="s">
         <v>45</v>
       </c>
-      <c r="D498" t="s">
-        <v>14</v>
-      </c>
-      <c r="E498" t="s">
-        <v>15</v>
-      </c>
-      <c r="F498" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="499" spans="1:8">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11695,7 +11633,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:8">
       <c r="A500">
         <v>4</v>
       </c>
@@ -11721,7 +11659,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:8">
       <c r="A501">
         <v>8.1</v>
       </c>
@@ -11747,7 +11685,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:8">
       <c r="A502">
         <v>12.1</v>
       </c>
@@ -11773,7 +11711,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:8">
       <c r="A503">
         <v>16.100000000000001</v>
       </c>
@@ -11799,7 +11737,7 @@
         <v>2.855</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:8">
       <c r="A504">
         <v>20.100000000000001</v>
       </c>
@@ -11825,7 +11763,7 @@
         <v>2.8540000000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:8">
       <c r="A505">
         <v>24.2</v>
       </c>
@@ -11851,7 +11789,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:8">
       <c r="A506">
         <v>28.2</v>
       </c>
@@ -11877,7 +11815,7 @@
         <v>2.8460000000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:8">
       <c r="A507">
         <v>32.200000000000003</v>
       </c>
@@ -11903,7 +11841,7 @@
         <v>2.8380000000000001</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:8">
       <c r="A508">
         <v>36.200000000000003</v>
       </c>
@@ -11929,7 +11867,7 @@
         <v>2.8290000000000002</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:8">
       <c r="A509">
         <v>40.299999999999997</v>
       </c>
@@ -11955,7 +11893,7 @@
         <v>2.8140000000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:8">
       <c r="A510">
         <v>44.3</v>
       </c>
@@ -11981,7 +11919,7 @@
         <v>2.7919999999999998</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:8">
       <c r="A511">
         <v>48.3</v>
       </c>
@@ -12007,7 +11945,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:8">
       <c r="A512">
         <v>52.3</v>
       </c>
@@ -12033,7 +11971,7 @@
         <v>2.7130000000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:8">
       <c r="A513">
         <v>56.4</v>
       </c>
@@ -12059,7 +11997,7 @@
         <v>2.6459999999999999</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:8">
       <c r="A514">
         <v>60.4</v>
       </c>
@@ -12085,7 +12023,7 @@
         <v>2.5569999999999999</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:8">
       <c r="A515">
         <v>64.400000000000006</v>
       </c>
@@ -12111,7 +12049,7 @@
         <v>2.4409999999999998</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:8">
       <c r="A516">
         <v>68.400000000000006</v>
       </c>
@@ -12137,7 +12075,7 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:8">
       <c r="A517">
         <v>72.5</v>
       </c>
@@ -12163,7 +12101,7 @@
         <v>2.1179999999999999</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:8">
       <c r="A518">
         <v>76.5</v>
       </c>
@@ -12189,7 +12127,7 @@
         <v>1.9430000000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:8">
       <c r="A519">
         <v>80.5</v>
       </c>
@@ -12215,7 +12153,7 @@
         <v>1.764</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:8">
       <c r="A520">
         <v>84.5</v>
       </c>
@@ -12241,7 +12179,7 @@
         <v>1.5820000000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:8">
       <c r="A521">
         <v>88.6</v>
       </c>
@@ -12267,7 +12205,7 @@
         <v>1.397</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:8">
       <c r="A522">
         <v>92.6</v>
       </c>
@@ -12293,7 +12231,7 @@
         <v>1.2070000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:8">
       <c r="A523">
         <v>96.6</v>
       </c>
@@ -12319,7 +12257,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:8">
       <c r="A524">
         <v>100.7</v>
       </c>
@@ -12345,7 +12283,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:8">
       <c r="A525">
         <v>104.7</v>
       </c>
@@ -12371,7 +12309,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:8">
       <c r="A526">
         <v>108.7</v>
       </c>
@@ -12397,7 +12335,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:8">
       <c r="A527">
         <v>112.7</v>
       </c>
@@ -12423,7 +12361,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:8">
       <c r="A528">
         <v>116.8</v>
       </c>
@@ -12449,67 +12387,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:8">
       <c r="A532" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B532" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C532" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D532">
         <v>15000</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:8">
       <c r="A534" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B534" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C534" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D534" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E534" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F534" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G534" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H534" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
       <c r="A535" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B535" t="s">
+        <v>41</v>
+      </c>
+      <c r="C535" t="s">
+        <v>42</v>
+      </c>
+      <c r="D535" t="s">
+        <v>43</v>
+      </c>
+      <c r="E535" t="s">
         <v>44</v>
       </c>
-      <c r="C535" t="s">
+      <c r="F535" t="s">
         <v>45</v>
       </c>
-      <c r="D535" t="s">
-        <v>14</v>
-      </c>
-      <c r="E535" t="s">
-        <v>15</v>
-      </c>
-      <c r="F535" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="536" spans="1:8">
       <c r="A536">
         <v>0</v>
       </c>
@@ -12535,7 +12473,7 @@
         <v>3.3279999999999998</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:8">
       <c r="A537">
         <v>4.3</v>
       </c>
@@ -12561,7 +12499,7 @@
         <v>3.3290000000000002</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:8">
       <c r="A538">
         <v>8.6</v>
       </c>
@@ -12587,7 +12525,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:8">
       <c r="A539">
         <v>12.9</v>
       </c>
@@ -12613,7 +12551,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:8">
       <c r="A540">
         <v>17.3</v>
       </c>
@@ -12639,7 +12577,7 @@
         <v>3.3290000000000002</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:8">
       <c r="A541">
         <v>21.6</v>
       </c>
@@ -12665,7 +12603,7 @@
         <v>3.3260000000000001</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:8">
       <c r="A542">
         <v>25.9</v>
       </c>
@@ -12691,7 +12629,7 @@
         <v>3.3220000000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:8">
       <c r="A543">
         <v>30.2</v>
       </c>
@@ -12717,7 +12655,7 @@
         <v>3.3149999999999999</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:8">
       <c r="A544">
         <v>34.5</v>
       </c>
@@ -12743,7 +12681,7 @@
         <v>3.3050000000000002</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:8">
       <c r="A545">
         <v>38.799999999999997</v>
       </c>
@@ -12769,7 +12707,7 @@
         <v>3.2919999999999998</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:8">
       <c r="A546">
         <v>43.1</v>
       </c>
@@ -12795,7 +12733,7 @@
         <v>3.2719999999999998</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:8">
       <c r="A547">
         <v>47.4</v>
       </c>
@@ -12821,7 +12759,7 @@
         <v>3.246</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:8">
       <c r="A548">
         <v>51.8</v>
       </c>
@@ -12847,7 +12785,7 @@
         <v>3.206</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:8">
       <c r="A549">
         <v>56.1</v>
       </c>
@@ -12873,7 +12811,7 @@
         <v>3.149</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:8">
       <c r="A550">
         <v>60.4</v>
       </c>
@@ -12899,7 +12837,7 @@
         <v>3.069</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:8">
       <c r="A551">
         <v>64.7</v>
       </c>
@@ -12925,7 +12863,7 @@
         <v>2.9630000000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:8">
       <c r="A552">
         <v>69</v>
       </c>
@@ -12951,7 +12889,7 @@
         <v>2.827</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:8">
       <c r="A553">
         <v>73.3</v>
       </c>
@@ -12977,7 +12915,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:8">
       <c r="A554">
         <v>77.599999999999994</v>
       </c>
@@ -13003,7 +12941,7 @@
         <v>2.4510000000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:8">
       <c r="A555">
         <v>81.900000000000006</v>
       </c>
@@ -13029,7 +12967,7 @@
         <v>2.2490000000000001</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:8">
       <c r="A556">
         <v>86.3</v>
       </c>
@@ -13055,7 +12993,7 @@
         <v>2.0430000000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:8">
       <c r="A557">
         <v>90.6</v>
       </c>
@@ -13081,7 +13019,7 @@
         <v>1.8320000000000001</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:8">
       <c r="A558">
         <v>94.9</v>
       </c>
@@ -13107,7 +13045,7 @@
         <v>1.6160000000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:8">
       <c r="A559">
         <v>99.2</v>
       </c>
@@ -13133,7 +13071,7 @@
         <v>1.3979999999999999</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:8">
       <c r="A560">
         <v>103.5</v>
       </c>
@@ -13159,7 +13097,7 @@
         <v>1.175</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:8">
       <c r="A561">
         <v>107.8</v>
       </c>
@@ -13185,7 +13123,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:8">
       <c r="A562">
         <v>112.1</v>
       </c>
@@ -13211,7 +13149,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:8">
       <c r="A563">
         <v>116.4</v>
       </c>
@@ -13237,7 +13175,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:8">
       <c r="A564">
         <v>120.8</v>
       </c>
@@ -13263,7 +13201,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:8">
       <c r="A565">
         <v>125.1</v>
       </c>
@@ -13289,67 +13227,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:8">
       <c r="A569" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B569" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C569" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D569">
         <v>16000</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:8">
       <c r="A571" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B571" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C571" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D571" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E571" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F571" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G571" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H571" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
       <c r="A572" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B572" t="s">
+        <v>41</v>
+      </c>
+      <c r="C572" t="s">
+        <v>42</v>
+      </c>
+      <c r="D572" t="s">
+        <v>43</v>
+      </c>
+      <c r="E572" t="s">
         <v>44</v>
       </c>
-      <c r="C572" t="s">
+      <c r="F572" t="s">
         <v>45</v>
       </c>
-      <c r="D572" t="s">
-        <v>14</v>
-      </c>
-      <c r="E572" t="s">
-        <v>15</v>
-      </c>
-      <c r="F572" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="573" spans="1:8">
       <c r="A573">
         <v>0</v>
       </c>
@@ -13375,7 +13313,7 @@
         <v>3.8420000000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:8">
       <c r="A574">
         <v>4.5999999999999996</v>
       </c>
@@ -13401,7 +13339,7 @@
         <v>3.8439999999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:8">
       <c r="A575">
         <v>9.1999999999999993</v>
       </c>
@@ -13427,7 +13365,7 @@
         <v>3.8460000000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:8">
       <c r="A576">
         <v>13.8</v>
       </c>
@@ -13453,7 +13391,7 @@
         <v>3.8460000000000001</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:8">
       <c r="A577">
         <v>18.399999999999999</v>
       </c>
@@ -13479,7 +13417,7 @@
         <v>3.8450000000000002</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:8">
       <c r="A578">
         <v>23</v>
       </c>
@@ -13505,7 +13443,7 @@
         <v>3.8420000000000001</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:8">
       <c r="A579">
         <v>27.6</v>
       </c>
@@ -13531,7 +13469,7 @@
         <v>3.8359999999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:8">
       <c r="A580">
         <v>32.200000000000003</v>
       </c>
@@ -13557,7 +13495,7 @@
         <v>3.827</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:8">
       <c r="A581">
         <v>36.799999999999997</v>
       </c>
@@ -13583,7 +13521,7 @@
         <v>3.8140000000000001</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:8">
       <c r="A582">
         <v>41.4</v>
       </c>
@@ -13609,7 +13547,7 @@
         <v>3.7970000000000002</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:8">
       <c r="A583">
         <v>45.9</v>
       </c>
@@ -13635,7 +13573,7 @@
         <v>3.7730000000000001</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:8">
       <c r="A584">
         <v>50.5</v>
       </c>
@@ -13661,7 +13599,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:8">
       <c r="A585">
         <v>55.1</v>
       </c>
@@ -13687,7 +13625,7 @@
         <v>3.694</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:8">
       <c r="A586">
         <v>59.7</v>
       </c>
@@ -13713,7 +13651,7 @@
         <v>3.6269999999999998</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:8">
       <c r="A587">
         <v>64.3</v>
       </c>
@@ -13739,7 +13677,7 @@
         <v>3.5339999999999998</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:8">
       <c r="A588">
         <v>68.900000000000006</v>
       </c>
@@ -13765,7 +13703,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:8">
       <c r="A589">
         <v>73.5</v>
       </c>
@@ -13791,7 +13729,7 @@
         <v>3.2509999999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:8">
       <c r="A590">
         <v>78.099999999999994</v>
       </c>
@@ -13817,7 +13755,7 @@
         <v>3.0489999999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:8">
       <c r="A591">
         <v>82.7</v>
       </c>
@@ -13843,7 +13781,7 @@
         <v>2.8180000000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:8">
       <c r="A592">
         <v>87.3</v>
       </c>
@@ -13869,7 +13807,7 @@
         <v>2.5859999999999999</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:8">
       <c r="A593">
         <v>91.9</v>
       </c>
@@ -13895,7 +13833,7 @@
         <v>2.3490000000000002</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:8">
       <c r="A594">
         <v>96.5</v>
       </c>
@@ -13921,7 +13859,7 @@
         <v>2.1080000000000001</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:8">
       <c r="A595">
         <v>101.1</v>
       </c>
@@ -13947,7 +13885,7 @@
         <v>1.8620000000000001</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:8">
       <c r="A596">
         <v>105.7</v>
       </c>
@@ -13973,7 +13911,7 @@
         <v>1.611</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:8">
       <c r="A597">
         <v>110.3</v>
       </c>
@@ -13999,7 +13937,7 @@
         <v>1.355</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:8">
       <c r="A598">
         <v>114.9</v>
       </c>
@@ -14025,7 +13963,7 @@
         <v>1.093</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:8">
       <c r="A599">
         <v>119.5</v>
       </c>
@@ -14051,7 +13989,7 @@
         <v>0.82599999999999996</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:8">
       <c r="A600">
         <v>124.1</v>
       </c>
@@ -14077,7 +14015,7 @@
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:8">
       <c r="A601">
         <v>128.69999999999999</v>
       </c>
@@ -14103,7 +14041,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:8">
       <c r="A602">
         <v>133.30000000000001</v>
       </c>
@@ -14129,67 +14067,67 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:8">
       <c r="A606" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B606" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C606" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D606">
         <v>17000</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:8">
       <c r="A608" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B608" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C608" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D608" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E608" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F608" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G608" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H608" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
       <c r="A609" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B609" t="s">
+        <v>41</v>
+      </c>
+      <c r="C609" t="s">
+        <v>42</v>
+      </c>
+      <c r="D609" t="s">
+        <v>43</v>
+      </c>
+      <c r="E609" t="s">
         <v>44</v>
       </c>
-      <c r="C609" t="s">
+      <c r="F609" t="s">
         <v>45</v>
       </c>
-      <c r="D609" t="s">
-        <v>14</v>
-      </c>
-      <c r="E609" t="s">
-        <v>15</v>
-      </c>
-      <c r="F609" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="610" spans="1:8">
       <c r="A610">
         <v>0</v>
       </c>
@@ -14215,7 +14153,7 @@
         <v>4.4009999999999998</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:8">
       <c r="A611">
         <v>4.9000000000000004</v>
       </c>
@@ -14241,7 +14179,7 @@
         <v>4.4050000000000002</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:8">
       <c r="A612">
         <v>9.8000000000000007</v>
       </c>
@@ -14267,7 +14205,7 @@
         <v>4.4080000000000004</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:8">
       <c r="A613">
         <v>14.6</v>
       </c>
@@ -14293,7 +14231,7 @@
         <v>4.4089999999999998</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:8">
       <c r="A614">
         <v>19.5</v>
       </c>
@@ -14319,7 +14257,7 @@
         <v>4.4080000000000004</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:8">
       <c r="A615">
         <v>24.4</v>
       </c>
@@ -14345,7 +14283,7 @@
         <v>4.4039999999999999</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:8">
       <c r="A616">
         <v>29.3</v>
       </c>
@@ -14371,7 +14309,7 @@
         <v>4.3970000000000002</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:8">
       <c r="A617">
         <v>34.200000000000003</v>
       </c>
@@ -14397,7 +14335,7 @@
         <v>4.3860000000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:8">
       <c r="A618">
         <v>39</v>
       </c>
@@ -14423,7 +14361,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:8">
       <c r="A619">
         <v>43.9</v>
       </c>
@@ -14449,7 +14387,7 @@
         <v>4.3479999999999999</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:8">
       <c r="A620">
         <v>48.8</v>
       </c>
@@ -14475,7 +14413,7 @@
         <v>4.319</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:8">
       <c r="A621">
         <v>53.7</v>
       </c>
@@ -14501,7 +14439,7 @@
         <v>4.2789999999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:8">
       <c r="A622">
         <v>58.6</v>
       </c>
@@ -14527,7 +14465,7 @@
         <v>4.226</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:8">
       <c r="A623">
         <v>63.4</v>
       </c>
@@ -14553,7 +14491,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:8">
       <c r="A624">
         <v>68.3</v>
       </c>
@@ -14579,7 +14517,7 @@
         <v>4.0410000000000004</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:8">
       <c r="A625">
         <v>73.2</v>
       </c>
@@ -14605,7 +14543,7 @@
         <v>3.8969999999999998</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:8">
       <c r="A626">
         <v>78.099999999999994</v>
       </c>
@@ -14631,7 +14569,7 @@
         <v>3.7109999999999999</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:8">
       <c r="A627">
         <v>83</v>
       </c>
@@ -14657,7 +14595,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:8">
       <c r="A628">
         <v>87.8</v>
       </c>
@@ -14683,7 +14621,7 @@
         <v>3.214</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:8">
       <c r="A629">
         <v>92.7</v>
       </c>
@@ -14709,7 +14647,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:8">
       <c r="A630">
         <v>97.6</v>
       </c>
@@ -14735,7 +14673,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:8">
       <c r="A631">
         <v>102.5</v>
       </c>
@@ -14761,7 +14699,7 @@
         <v>2.4049999999999998</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:8">
       <c r="A632">
         <v>107.4</v>
       </c>
@@ -14787,7 +14725,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:8">
       <c r="A633">
         <v>112.2</v>
       </c>
@@ -14813,7 +14751,7 @@
         <v>1.8380000000000001</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:8">
       <c r="A634">
         <v>117.1</v>
       </c>
@@ -14839,7 +14777,7 @@
         <v>1.5469999999999999</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:8">
       <c r="A635">
         <v>122</v>
       </c>
@@ -14865,7 +14803,7 @@
         <v>1.2490000000000001</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:8">
       <c r="A636">
         <v>126.9</v>
       </c>
@@ -14891,7 +14829,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:8">
       <c r="A637">
         <v>131.80000000000001</v>
       </c>
@@ -14917,7 +14855,7 @@
         <v>0.63400000000000001</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:8">
       <c r="A638">
         <v>136.6</v>
       </c>
@@ -14943,7 +14881,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:8">
       <c r="A639">
         <v>141.5</v>
       </c>
@@ -14969,67 +14907,67 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:8">
       <c r="A643" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B643" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C643" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D643">
         <v>18000</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:8">
       <c r="A645" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B645" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C645" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D645" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E645" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F645" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G645" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H645" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8">
       <c r="A646" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B646" t="s">
+        <v>41</v>
+      </c>
+      <c r="C646" t="s">
+        <v>42</v>
+      </c>
+      <c r="D646" t="s">
+        <v>43</v>
+      </c>
+      <c r="E646" t="s">
         <v>44</v>
       </c>
-      <c r="C646" t="s">
+      <c r="F646" t="s">
         <v>45</v>
       </c>
-      <c r="D646" t="s">
-        <v>14</v>
-      </c>
-      <c r="E646" t="s">
-        <v>15</v>
-      </c>
-      <c r="F646" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="647" spans="1:8">
       <c r="A647">
         <v>0</v>
       </c>
@@ -15055,7 +14993,7 @@
         <v>5.0030000000000001</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:8">
       <c r="A648">
         <v>5.2</v>
       </c>
@@ -15081,7 +15019,7 @@
         <v>5.0090000000000003</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:8">
       <c r="A649">
         <v>10.3</v>
       </c>
@@ -15107,7 +15045,7 @@
         <v>5.0129999999999999</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:8">
       <c r="A650">
         <v>15.5</v>
       </c>
@@ -15133,7 +15071,7 @@
         <v>5.0140000000000002</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:8">
       <c r="A651">
         <v>20.7</v>
       </c>
@@ -15159,7 +15097,7 @@
         <v>5.0129999999999999</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:8">
       <c r="A652">
         <v>25.8</v>
       </c>
@@ -15185,7 +15123,7 @@
         <v>5.008</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:8">
       <c r="A653">
         <v>31</v>
       </c>
@@ -15211,7 +15149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:8">
       <c r="A654">
         <v>36.200000000000003</v>
       </c>
@@ -15237,7 +15175,7 @@
         <v>4.9859999999999998</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:8">
       <c r="A655">
         <v>41.3</v>
       </c>
@@ -15263,7 +15201,7 @@
         <v>4.9660000000000002</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:8">
       <c r="A656">
         <v>46.5</v>
       </c>
@@ -15289,7 +15227,7 @@
         <v>4.9390000000000001</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:8">
       <c r="A657">
         <v>51.7</v>
       </c>
@@ -15315,7 +15253,7 @@
         <v>4.9039999999999999</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:8">
       <c r="A658">
         <v>56.8</v>
       </c>
@@ -15341,7 +15279,7 @@
         <v>4.8570000000000002</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:8">
       <c r="A659">
         <v>62</v>
       </c>
@@ -15367,7 +15305,7 @@
         <v>4.7960000000000003</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:8">
       <c r="A660">
         <v>67.2</v>
       </c>
@@ -15393,7 +15331,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:8">
       <c r="A661">
         <v>72.3</v>
       </c>
@@ -15419,7 +15357,7 @@
         <v>4.5880000000000001</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:8">
       <c r="A662">
         <v>77.5</v>
       </c>
@@ -15445,7 +15383,7 @@
         <v>4.423</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:8">
       <c r="A663">
         <v>82.7</v>
       </c>
@@ -15471,7 +15409,7 @@
         <v>4.2110000000000003</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:8">
       <c r="A664">
         <v>87.8</v>
       </c>
@@ -15497,7 +15435,7 @@
         <v>3.9470000000000001</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:8">
       <c r="A665">
         <v>93</v>
       </c>
@@ -15523,7 +15461,7 @@
         <v>3.6440000000000001</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:8">
       <c r="A666">
         <v>98.2</v>
       </c>
@@ -15549,7 +15487,7 @@
         <v>3.3439999999999999</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:8">
       <c r="A667">
         <v>103.3</v>
       </c>
@@ -15575,7 +15513,7 @@
         <v>3.0379999999999998</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:8">
       <c r="A668">
         <v>108.5</v>
       </c>
@@ -15601,7 +15539,7 @@
         <v>2.726</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:8">
       <c r="A669">
         <v>113.7</v>
       </c>
@@ -15627,7 +15565,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:8">
       <c r="A670">
         <v>118.8</v>
       </c>
@@ -15653,7 +15591,7 @@
         <v>2.0830000000000002</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:8">
       <c r="A671">
         <v>124</v>
       </c>
@@ -15679,7 +15617,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:8">
       <c r="A672">
         <v>129.19999999999999</v>
       </c>
@@ -15705,7 +15643,7 @@
         <v>1.415</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:8">
       <c r="A673">
         <v>134.30000000000001</v>
       </c>
@@ -15731,7 +15669,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:8">
       <c r="A674">
         <v>139.5</v>
       </c>
@@ -15757,7 +15695,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:8">
       <c r="A675">
         <v>144.69999999999999</v>
       </c>
@@ -15783,7 +15721,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:8">
       <c r="A676">
         <v>149.80000000000001</v>
       </c>
@@ -15809,67 +15747,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:8">
       <c r="A680" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B680" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C680" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D680">
         <v>19000</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:8">
       <c r="A682" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B682" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C682" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D682" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E682" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F682" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G682" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H682" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8">
       <c r="A683" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B683" t="s">
+        <v>41</v>
+      </c>
+      <c r="C683" t="s">
+        <v>42</v>
+      </c>
+      <c r="D683" t="s">
+        <v>43</v>
+      </c>
+      <c r="E683" t="s">
         <v>44</v>
       </c>
-      <c r="C683" t="s">
+      <c r="F683" t="s">
         <v>45</v>
       </c>
-      <c r="D683" t="s">
-        <v>14</v>
-      </c>
-      <c r="E683" t="s">
-        <v>15</v>
-      </c>
-      <c r="F683" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="684" spans="1:8">
       <c r="A684">
         <v>0</v>
       </c>
@@ -15895,7 +15833,7 @@
         <v>5.6529999999999996</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:8">
       <c r="A685">
         <v>5.4</v>
       </c>
@@ -15921,7 +15859,7 @@
         <v>5.6609999999999996</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:8">
       <c r="A686">
         <v>10.9</v>
       </c>
@@ -15947,7 +15885,7 @@
         <v>5.6669999999999998</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:8">
       <c r="A687">
         <v>16.3</v>
       </c>
@@ -15973,7 +15911,7 @@
         <v>5.6689999999999996</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:8">
       <c r="A688">
         <v>21.8</v>
       </c>
@@ -15999,7 +15937,7 @@
         <v>5.6689999999999996</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:8">
       <c r="A689">
         <v>27.2</v>
       </c>
@@ -16025,7 +15963,7 @@
         <v>5.6639999999999997</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:8">
       <c r="A690">
         <v>32.700000000000003</v>
       </c>
@@ -16051,7 +15989,7 @@
         <v>5.6539999999999999</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:8">
       <c r="A691">
         <v>38.1</v>
       </c>
@@ -16077,7 +16015,7 @@
         <v>5.6379999999999999</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:8">
       <c r="A692">
         <v>43.6</v>
       </c>
@@ -16103,7 +16041,7 @@
         <v>5.6150000000000002</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:8">
       <c r="A693">
         <v>49</v>
       </c>
@@ -16129,7 +16067,7 @@
         <v>5.5819999999999999</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:8">
       <c r="A694">
         <v>54.5</v>
       </c>
@@ -16155,7 +16093,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:8">
       <c r="A695">
         <v>59.9</v>
       </c>
@@ -16181,7 +16119,7 @@
         <v>5.4850000000000003</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:8">
       <c r="A696">
         <v>65.400000000000006</v>
       </c>
@@ -16207,7 +16145,7 @@
         <v>5.4139999999999997</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:8">
       <c r="A697">
         <v>70.8</v>
       </c>
@@ -16233,7 +16171,7 @@
         <v>5.319</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:8">
       <c r="A698">
         <v>76.3</v>
       </c>
@@ -16259,7 +16197,7 @@
         <v>5.1840000000000002</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:8">
       <c r="A699">
         <v>81.7</v>
       </c>
@@ -16285,7 +16223,7 @@
         <v>4.9969999999999999</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:8">
       <c r="A700">
         <v>87.2</v>
       </c>
@@ -16311,7 +16249,7 @@
         <v>4.7560000000000002</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:8">
       <c r="A701">
         <v>92.6</v>
       </c>
@@ -16337,7 +16275,7 @@
         <v>4.4580000000000002</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:8">
       <c r="A702">
         <v>98.1</v>
       </c>
@@ -16363,7 +16301,7 @@
         <v>4.1130000000000004</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:8">
       <c r="A703">
         <v>103.5</v>
       </c>
@@ -16389,7 +16327,7 @@
         <v>3.7749999999999999</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:8">
       <c r="A704">
         <v>109</v>
       </c>
@@ -16415,7 +16353,7 @@
         <v>3.431</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:8">
       <c r="A705">
         <v>114.4</v>
       </c>
@@ -16441,7 +16379,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:8">
       <c r="A706">
         <v>119.9</v>
       </c>
@@ -16467,7 +16405,7 @@
         <v>2.7210000000000001</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:8">
       <c r="A707">
         <v>125.3</v>
       </c>
@@ -16493,7 +16431,7 @@
         <v>2.355</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:8">
       <c r="A708">
         <v>130.80000000000001</v>
       </c>
@@ -16519,7 +16457,7 @@
         <v>1.982</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:8">
       <c r="A709">
         <v>136.19999999999999</v>
       </c>
@@ -16545,7 +16483,7 @@
         <v>1.601</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:8">
       <c r="A710">
         <v>141.69999999999999</v>
       </c>
@@ -16571,7 +16509,7 @@
         <v>1.212</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:8">
       <c r="A711">
         <v>147.1</v>
       </c>
@@ -16597,7 +16535,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:8">
       <c r="A712">
         <v>152.6</v>
       </c>
@@ -16623,7 +16561,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:8">
       <c r="A713">
         <v>158</v>
       </c>
@@ -16649,67 +16587,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:8">
       <c r="A717" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B717" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C717" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D717">
         <v>20000</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:8">
       <c r="A719" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B719" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C719" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D719" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E719" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F719" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G719" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H719" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8">
       <c r="A720" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B720" t="s">
+        <v>41</v>
+      </c>
+      <c r="C720" t="s">
+        <v>42</v>
+      </c>
+      <c r="D720" t="s">
+        <v>43</v>
+      </c>
+      <c r="E720" t="s">
         <v>44</v>
       </c>
-      <c r="C720" t="s">
+      <c r="F720" t="s">
         <v>45</v>
       </c>
-      <c r="D720" t="s">
-        <v>14</v>
-      </c>
-      <c r="E720" t="s">
-        <v>15</v>
-      </c>
-      <c r="F720" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="721" spans="1:8">
       <c r="A721">
         <v>0</v>
       </c>
@@ -16735,7 +16673,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:8">
       <c r="A722">
         <v>5.7</v>
       </c>
@@ -16761,7 +16699,7 @@
         <v>6.3630000000000004</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:8">
       <c r="A723">
         <v>11.5</v>
       </c>
@@ -16787,7 +16725,7 @@
         <v>6.3710000000000004</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:8">
       <c r="A724">
         <v>17.2</v>
       </c>
@@ -16813,7 +16751,7 @@
         <v>6.3760000000000003</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:8">
       <c r="A725">
         <v>22.9</v>
       </c>
@@ -16839,7 +16777,7 @@
         <v>6.375</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:8">
       <c r="A726">
         <v>28.7</v>
       </c>
@@ -16865,7 +16803,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:8">
       <c r="A727">
         <v>34.4</v>
       </c>
@@ -16891,7 +16829,7 @@
         <v>6.3579999999999997</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:8">
       <c r="A728">
         <v>40.1</v>
       </c>
@@ -16917,7 +16855,7 @@
         <v>6.3390000000000004</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:8">
       <c r="A729">
         <v>45.9</v>
       </c>
@@ -16943,7 +16881,7 @@
         <v>6.3109999999999999</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:8">
       <c r="A730">
         <v>51.6</v>
       </c>
@@ -16969,7 +16907,7 @@
         <v>6.274</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:8">
       <c r="A731">
         <v>57.3</v>
       </c>
@@ -16995,7 +16933,7 @@
         <v>6.2240000000000002</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:8">
       <c r="A732">
         <v>63.1</v>
       </c>
@@ -17021,7 +16959,7 @@
         <v>6.1609999999999996</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:8">
       <c r="A733">
         <v>68.8</v>
       </c>
@@ -17047,7 +16985,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:8">
       <c r="A734">
         <v>74.5</v>
       </c>
@@ -17073,7 +17011,7 @@
         <v>5.9749999999999996</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:8">
       <c r="A735">
         <v>80.3</v>
       </c>
@@ -17099,7 +17037,7 @@
         <v>5.8289999999999997</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:8">
       <c r="A736">
         <v>86</v>
       </c>
@@ -17125,7 +17063,7 @@
         <v>5.6219999999999999</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:8">
       <c r="A737">
         <v>91.7</v>
       </c>
@@ -17151,7 +17089,7 @@
         <v>5.3479999999999999</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:8">
       <c r="A738">
         <v>97.5</v>
       </c>
@@ -17177,7 +17115,7 @@
         <v>5.0129999999999999</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:8">
       <c r="A739">
         <v>103.2</v>
       </c>
@@ -17203,7 +17141,7 @@
         <v>4.6239999999999997</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:8">
       <c r="A740">
         <v>109</v>
       </c>
@@ -17229,7 +17167,7 @@
         <v>4.2450000000000001</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:8">
       <c r="A741">
         <v>114.7</v>
       </c>
@@ -17255,7 +17193,7 @@
         <v>3.8580000000000001</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:8">
       <c r="A742">
         <v>120.4</v>
       </c>
@@ -17281,7 +17219,7 @@
         <v>3.4630000000000001</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:8">
       <c r="A743">
         <v>126.2</v>
       </c>
@@ -17307,7 +17245,7 @@
         <v>3.0609999999999999</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:8">
       <c r="A744">
         <v>131.9</v>
       </c>
@@ -17333,7 +17271,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:8">
       <c r="A745">
         <v>137.6</v>
       </c>
@@ -17359,7 +17297,7 @@
         <v>2.2309999999999999</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:8">
       <c r="A746">
         <v>143.4</v>
       </c>
@@ -17385,7 +17323,7 @@
         <v>1.802</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:8">
       <c r="A747">
         <v>149.1</v>
       </c>
@@ -17411,7 +17349,7 @@
         <v>1.363</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:8">
       <c r="A748">
         <v>154.80000000000001</v>
       </c>
@@ -17437,7 +17375,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:8">
       <c r="A749">
         <v>160.6</v>
       </c>
@@ -17463,7 +17401,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:8">
       <c r="A750">
         <v>166.3</v>
       </c>
@@ -17489,67 +17427,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:8">
       <c r="A754" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B754" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C754" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D754">
         <v>21000</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:8">
       <c r="A756" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B756" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C756" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D756" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E756" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F756" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G756" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H756" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8">
       <c r="A757" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B757" t="s">
+        <v>41</v>
+      </c>
+      <c r="C757" t="s">
+        <v>42</v>
+      </c>
+      <c r="D757" t="s">
+        <v>43</v>
+      </c>
+      <c r="E757" t="s">
         <v>44</v>
       </c>
-      <c r="C757" t="s">
+      <c r="F757" t="s">
         <v>45</v>
       </c>
-      <c r="D757" t="s">
-        <v>14</v>
-      </c>
-      <c r="E757" t="s">
-        <v>15</v>
-      </c>
-      <c r="F757" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="758" spans="1:8">
       <c r="A758">
         <v>0</v>
       </c>
@@ -17575,7 +17513,7 @@
         <v>7.101</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:8">
       <c r="A759">
         <v>6</v>
       </c>
@@ -17601,7 +17539,7 @@
         <v>7.117</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:8">
       <c r="A760">
         <v>12</v>
       </c>
@@ -17627,7 +17565,7 @@
         <v>7.1280000000000001</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:8">
       <c r="A761">
         <v>18.100000000000001</v>
       </c>
@@ -17653,7 +17591,7 @@
         <v>7.1340000000000003</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:8">
       <c r="A762">
         <v>24.1</v>
       </c>
@@ -17679,7 +17617,7 @@
         <v>7.1349999999999998</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:8">
       <c r="A763">
         <v>30.1</v>
       </c>
@@ -17705,7 +17643,7 @@
         <v>7.1289999999999996</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:8">
       <c r="A764">
         <v>36.1</v>
       </c>
@@ -17731,7 +17669,7 @@
         <v>7.117</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:8">
       <c r="A765">
         <v>42.1</v>
       </c>
@@ -17757,7 +17695,7 @@
         <v>7.0960000000000001</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:8">
       <c r="A766">
         <v>48.1</v>
       </c>
@@ -17783,7 +17721,7 @@
         <v>7.0629999999999997</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:8">
       <c r="A767">
         <v>54.2</v>
       </c>
@@ -17809,7 +17747,7 @@
         <v>7.02</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="1:8">
       <c r="A768">
         <v>60.2</v>
       </c>
@@ -17835,7 +17773,7 @@
         <v>6.9619999999999997</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="1:8">
       <c r="A769">
         <v>66.2</v>
       </c>
@@ -17861,7 +17799,7 @@
         <v>6.8890000000000002</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="1:8">
       <c r="A770">
         <v>72.2</v>
       </c>
@@ -17887,7 +17825,7 @@
         <v>6.798</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="771" spans="1:8">
       <c r="A771">
         <v>78.2</v>
       </c>
@@ -17913,7 +17851,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="1:8">
       <c r="A772">
         <v>84.3</v>
       </c>
@@ -17939,7 +17877,7 @@
         <v>6.524</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="1:8">
       <c r="A773">
         <v>90.3</v>
       </c>
@@ -17965,7 +17903,7 @@
         <v>6.3019999999999996</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="774" spans="1:8">
       <c r="A774">
         <v>96.3</v>
       </c>
@@ -17991,7 +17929,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="775" spans="1:8">
       <c r="A775">
         <v>102.3</v>
       </c>
@@ -18017,7 +17955,7 @@
         <v>5.6219999999999999</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="776" spans="1:8">
       <c r="A776">
         <v>108.3</v>
       </c>
@@ -18043,7 +17981,7 @@
         <v>5.1829999999999998</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="1:8">
       <c r="A777">
         <v>114.3</v>
       </c>
@@ -18069,7 +18007,7 @@
         <v>4.758</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="1:8">
       <c r="A778">
         <v>120.4</v>
       </c>
@@ -18095,7 +18033,7 @@
         <v>4.3250000000000002</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="779" spans="1:8">
       <c r="A779">
         <v>126.4</v>
       </c>
@@ -18121,7 +18059,7 @@
         <v>3.8839999999999999</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="1:8">
       <c r="A780">
         <v>132.4</v>
       </c>
@@ -18147,7 +18085,7 @@
         <v>3.4340000000000002</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="1:8">
       <c r="A781">
         <v>138.4</v>
       </c>
@@ -18173,7 +18111,7 @@
         <v>2.9740000000000002</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="782" spans="1:8">
       <c r="A782">
         <v>144.4</v>
       </c>
@@ -18199,7 +18137,7 @@
         <v>2.5059999999999998</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="1:8">
       <c r="A783">
         <v>150.4</v>
       </c>
@@ -18225,7 +18163,7 @@
         <v>2.024</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="784" spans="1:8">
       <c r="A784">
         <v>156.5</v>
       </c>
@@ -18251,7 +18189,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="1:8">
       <c r="A785">
         <v>162.5</v>
       </c>
@@ -18277,7 +18215,7 @@
         <v>1.034</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="1:8">
       <c r="A786">
         <v>168.5</v>
       </c>
@@ -18303,7 +18241,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="1:8">
       <c r="A787">
         <v>174.5</v>
       </c>
@@ -18329,67 +18267,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="1:8">
       <c r="A791" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B791" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C791" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D791">
         <v>22000</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="1:8">
       <c r="A793" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B793" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C793" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D793" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E793" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F793" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G793" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H793" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8">
       <c r="A794" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B794" t="s">
+        <v>41</v>
+      </c>
+      <c r="C794" t="s">
+        <v>42</v>
+      </c>
+      <c r="D794" t="s">
+        <v>43</v>
+      </c>
+      <c r="E794" t="s">
         <v>44</v>
       </c>
-      <c r="C794" t="s">
+      <c r="F794" t="s">
         <v>45</v>
       </c>
-      <c r="D794" t="s">
-        <v>14</v>
-      </c>
-      <c r="E794" t="s">
-        <v>15</v>
-      </c>
-      <c r="F794" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="795" spans="1:8">
       <c r="A795">
         <v>0</v>
       </c>
@@ -18415,7 +18353,7 @@
         <v>7.9130000000000003</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="1:8">
       <c r="A796">
         <v>6.3</v>
       </c>
@@ -18441,7 +18379,7 @@
         <v>7.9329999999999998</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="797" spans="1:8">
       <c r="A797">
         <v>12.6</v>
       </c>
@@ -18467,7 +18405,7 @@
         <v>7.9480000000000004</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="798" spans="1:8">
       <c r="A798">
         <v>18.899999999999999</v>
       </c>
@@ -18493,7 +18431,7 @@
         <v>7.9569999999999999</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="799" spans="1:8">
       <c r="A799">
         <v>25.2</v>
       </c>
@@ -18519,7 +18457,7 @@
         <v>7.9589999999999996</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="800" spans="1:8">
       <c r="A800">
         <v>31.5</v>
       </c>
@@ -18545,7 +18483,7 @@
         <v>7.9539999999999997</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="801" spans="1:8">
       <c r="A801">
         <v>37.799999999999997</v>
       </c>
@@ -18571,7 +18509,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="802" spans="1:8">
       <c r="A802">
         <v>44.1</v>
       </c>
@@ -18597,7 +18535,7 @@
         <v>7.9169999999999998</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="803" spans="1:8">
       <c r="A803">
         <v>50.4</v>
       </c>
@@ -18623,7 +18561,7 @@
         <v>7.883</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="804" spans="1:8">
       <c r="A804">
         <v>56.7</v>
       </c>
@@ -18649,7 +18587,7 @@
         <v>7.8330000000000002</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="805" spans="1:8">
       <c r="A805">
         <v>63</v>
       </c>
@@ -18675,7 +18613,7 @@
         <v>7.7690000000000001</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="806" spans="1:8">
       <c r="A806">
         <v>69.3</v>
       </c>
@@ -18701,7 +18639,7 @@
         <v>7.6879999999999997</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="807" spans="1:8">
       <c r="A807">
         <v>75.599999999999994</v>
       </c>
@@ -18727,7 +18665,7 @@
         <v>7.585</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="808" spans="1:8">
       <c r="A808">
         <v>81.900000000000006</v>
       </c>
@@ -18753,7 +18691,7 @@
         <v>7.4569999999999999</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="809" spans="1:8">
       <c r="A809">
         <v>88.2</v>
       </c>
@@ -18779,7 +18717,7 @@
         <v>7.2939999999999996</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="810" spans="1:8">
       <c r="A810">
         <v>94.5</v>
       </c>
@@ -18805,7 +18743,7 @@
         <v>7.0590000000000002</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="811" spans="1:8">
       <c r="A811">
         <v>100.8</v>
       </c>
@@ -18831,7 +18769,7 @@
         <v>6.7210000000000001</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="812" spans="1:8">
       <c r="A812">
         <v>107.1</v>
       </c>
@@ -18857,7 +18795,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="813" spans="1:8">
       <c r="A813">
         <v>113.4</v>
       </c>
@@ -18883,7 +18821,7 @@
         <v>5.806</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="814" spans="1:8">
       <c r="A814">
         <v>119.7</v>
       </c>
@@ -18909,7 +18847,7 @@
         <v>5.327</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="815" spans="1:8">
       <c r="A815">
         <v>125.9</v>
       </c>
@@ -18935,7 +18873,7 @@
         <v>4.8460000000000001</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="816" spans="1:8">
       <c r="A816">
         <v>132.19999999999999</v>
       </c>
@@ -18961,7 +18899,7 @@
         <v>4.3550000000000004</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="817" spans="1:8">
       <c r="A817">
         <v>138.5</v>
       </c>
@@ -18987,7 +18925,7 @@
         <v>3.8530000000000002</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="818" spans="1:8">
       <c r="A818">
         <v>144.80000000000001</v>
       </c>
@@ -19013,7 +18951,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="819" spans="1:8">
       <c r="A819">
         <v>151.1</v>
       </c>
@@ -19039,7 +18977,7 @@
         <v>2.8159999999999998</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="820" spans="1:8">
       <c r="A820">
         <v>157.4</v>
       </c>
@@ -19065,7 +19003,7 @@
         <v>2.278</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="821" spans="1:8">
       <c r="A821">
         <v>163.69999999999999</v>
       </c>
@@ -19091,7 +19029,7 @@
         <v>1.732</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="822" spans="1:8">
       <c r="A822">
         <v>170</v>
       </c>
@@ -19117,7 +19055,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="823" spans="1:8">
       <c r="A823">
         <v>176.3</v>
       </c>
@@ -19143,7 +19081,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="824" spans="1:8">
       <c r="A824">
         <v>182.6</v>
       </c>
@@ -19169,67 +19107,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="828" spans="1:8">
       <c r="A828" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B828" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C828" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D828">
         <v>23000</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="830" spans="1:8">
       <c r="A830" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B830" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C830" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D830" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E830" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F830" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G830" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H830" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8">
       <c r="A831" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B831" t="s">
+        <v>41</v>
+      </c>
+      <c r="C831" t="s">
+        <v>42</v>
+      </c>
+      <c r="D831" t="s">
+        <v>43</v>
+      </c>
+      <c r="E831" t="s">
         <v>44</v>
       </c>
-      <c r="C831" t="s">
+      <c r="F831" t="s">
         <v>45</v>
       </c>
-      <c r="D831" t="s">
-        <v>14</v>
-      </c>
-      <c r="E831" t="s">
-        <v>15</v>
-      </c>
-      <c r="F831" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="832" spans="1:8">
       <c r="A832">
         <v>0</v>
       </c>
@@ -19255,7 +19193,7 @@
         <v>8.8040000000000003</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="833" spans="1:8">
       <c r="A833">
         <v>6.6</v>
       </c>
@@ -19281,7 +19219,7 @@
         <v>8.827</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="834" spans="1:8">
       <c r="A834">
         <v>13.1</v>
       </c>
@@ -19307,7 +19245,7 @@
         <v>8.8469999999999995</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="835" spans="1:8">
       <c r="A835">
         <v>19.7</v>
       </c>
@@ -19333,7 +19271,7 @@
         <v>8.8620000000000001</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="836" spans="1:8">
       <c r="A836">
         <v>26.3</v>
       </c>
@@ -19359,7 +19297,7 @@
         <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="837" spans="1:8">
       <c r="A837">
         <v>32.799999999999997</v>
       </c>
@@ -19385,7 +19323,7 @@
         <v>8.8689999999999998</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="838" spans="1:8">
       <c r="A838">
         <v>39.4</v>
       </c>
@@ -19411,7 +19349,7 @@
         <v>8.8580000000000005</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="839" spans="1:8">
       <c r="A839">
         <v>45.9</v>
       </c>
@@ -19437,7 +19375,7 @@
         <v>8.8339999999999996</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="840" spans="1:8">
       <c r="A840">
         <v>52.5</v>
       </c>
@@ -19463,7 +19401,7 @@
         <v>8.798</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="841" spans="1:8">
       <c r="A841">
         <v>59.1</v>
       </c>
@@ -19489,7 +19427,7 @@
         <v>8.7460000000000004</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="842" spans="1:8">
       <c r="A842">
         <v>65.599999999999994</v>
       </c>
@@ -19515,7 +19453,7 @@
         <v>8.6750000000000007</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="843" spans="1:8">
       <c r="A843">
         <v>72.2</v>
       </c>
@@ -19541,7 +19479,7 @@
         <v>8.5869999999999997</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="844" spans="1:8">
       <c r="A844">
         <v>78.8</v>
       </c>
@@ -19567,7 +19505,7 @@
         <v>8.4760000000000009</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="845" spans="1:8">
       <c r="A845">
         <v>85.3</v>
       </c>
@@ -19593,7 +19531,7 @@
         <v>8.3379999999999992</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="846" spans="1:8">
       <c r="A846">
         <v>91.9</v>
       </c>
@@ -19619,7 +19557,7 @@
         <v>8.1709999999999994</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="847" spans="1:8">
       <c r="A847">
         <v>98.4</v>
       </c>
@@ -19645,7 +19583,7 @@
         <v>7.9489999999999998</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="848" spans="1:8">
       <c r="A848">
         <v>105</v>
       </c>
@@ -19671,7 +19609,7 @@
         <v>7.5810000000000004</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="849" spans="1:8">
       <c r="A849">
         <v>111.6</v>
       </c>
@@ -19697,7 +19635,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="850" spans="1:8">
       <c r="A850">
         <v>118.1</v>
       </c>
@@ -19723,7 +19661,7 @@
         <v>6.5359999999999996</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="851" spans="1:8">
       <c r="A851">
         <v>124.7</v>
       </c>
@@ -19749,7 +19687,7 @@
         <v>5.9870000000000001</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="852" spans="1:8">
       <c r="A852">
         <v>131.30000000000001</v>
       </c>
@@ -19775,7 +19713,7 @@
         <v>5.452</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="853" spans="1:8">
       <c r="A853">
         <v>137.80000000000001</v>
       </c>
@@ -19801,7 +19739,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="854" spans="1:8">
       <c r="A854">
         <v>144.4</v>
       </c>
@@ -19827,7 +19765,7 @@
         <v>4.3440000000000003</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="855" spans="1:8">
       <c r="A855">
         <v>150.9</v>
       </c>
@@ -19853,7 +19791,7 @@
         <v>3.7709999999999999</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="856" spans="1:8">
       <c r="A856">
         <v>157.5</v>
       </c>
@@ -19879,7 +19817,7 @@
         <v>3.1890000000000001</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="857" spans="1:8">
       <c r="A857">
         <v>164.1</v>
       </c>
@@ -19905,7 +19843,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="858" spans="1:8">
       <c r="A858">
         <v>170.6</v>
       </c>
@@ -19931,7 +19869,7 @@
         <v>1.982</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="859" spans="1:8">
       <c r="A859">
         <v>177.2</v>
       </c>
@@ -19957,7 +19895,7 @@
         <v>1.343</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="860" spans="1:8">
       <c r="A860">
         <v>183.8</v>
       </c>
@@ -19983,7 +19921,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="861" spans="1:8">
       <c r="A861">
         <v>190.3</v>
       </c>
@@ -20009,67 +19947,67 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="865" spans="1:8">
       <c r="A865" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B865" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C865" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D865">
         <v>24000</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="867" spans="1:8">
       <c r="A867" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B867" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C867" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D867" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E867" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F867" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G867" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H867" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8">
       <c r="A868" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B868" t="s">
+        <v>41</v>
+      </c>
+      <c r="C868" t="s">
+        <v>42</v>
+      </c>
+      <c r="D868" t="s">
+        <v>43</v>
+      </c>
+      <c r="E868" t="s">
         <v>44</v>
       </c>
-      <c r="C868" t="s">
+      <c r="F868" t="s">
         <v>45</v>
       </c>
-      <c r="D868" t="s">
-        <v>14</v>
-      </c>
-      <c r="E868" t="s">
-        <v>15</v>
-      </c>
-      <c r="F868" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="869" spans="1:8">
       <c r="A869">
         <v>0</v>
       </c>
@@ -20095,7 +20033,7 @@
         <v>9.9890000000000008</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="870" spans="1:8">
       <c r="A870">
         <v>6.8</v>
       </c>
@@ -20121,7 +20059,7 @@
         <v>10.019</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="871" spans="1:8">
       <c r="A871">
         <v>13.7</v>
       </c>
@@ -20147,7 +20085,7 @@
         <v>10.048</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="872" spans="1:8">
       <c r="A872">
         <v>20.5</v>
       </c>
@@ -20173,7 +20111,7 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="873" spans="1:8">
       <c r="A873">
         <v>27.3</v>
       </c>
@@ -20199,7 +20137,7 @@
         <v>10.103999999999999</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="874" spans="1:8">
       <c r="A874">
         <v>34.1</v>
       </c>
@@ -20225,7 +20163,7 @@
         <v>10.101000000000001</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="875" spans="1:8">
       <c r="A875">
         <v>41</v>
       </c>
@@ -20251,7 +20189,7 @@
         <v>10.098000000000001</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="876" spans="1:8">
       <c r="A876">
         <v>47.8</v>
       </c>
@@ -20277,7 +20215,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="877" spans="1:8">
       <c r="A877">
         <v>54.6</v>
       </c>
@@ -20303,7 +20241,7 @@
         <v>10.007999999999999</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="878" spans="1:8">
       <c r="A878">
         <v>61.4</v>
       </c>
@@ -20329,7 +20267,7 @@
         <v>9.9610000000000003</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="879" spans="1:8">
       <c r="A879">
         <v>68.3</v>
       </c>
@@ -20355,7 +20293,7 @@
         <v>9.8940000000000001</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="880" spans="1:8">
       <c r="A880">
         <v>75.099999999999994</v>
       </c>
@@ -20381,7 +20319,7 @@
         <v>9.8119999999999994</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="881" spans="1:8">
       <c r="A881">
         <v>81.900000000000006</v>
       </c>
@@ -20407,7 +20345,7 @@
         <v>9.673</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="882" spans="1:8">
       <c r="A882">
         <v>88.7</v>
       </c>
@@ -20433,7 +20371,7 @@
         <v>9.5229999999999997</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="883" spans="1:8">
       <c r="A883">
         <v>95.6</v>
       </c>
@@ -20459,7 +20397,7 @@
         <v>9.3160000000000007</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="884" spans="1:8">
       <c r="A884">
         <v>102.4</v>
       </c>
@@ -20485,7 +20423,7 @@
         <v>9.0670000000000002</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="885" spans="1:8">
       <c r="A885">
         <v>109.2</v>
       </c>
@@ -20511,7 +20449,7 @@
         <v>8.7449999999999992</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="886" spans="1:8">
       <c r="A886">
         <v>116.1</v>
       </c>
@@ -20537,7 +20475,7 @@
         <v>8.1509999999999998</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="887" spans="1:8">
       <c r="A887">
         <v>122.9</v>
       </c>
@@ -20563,7 +20501,7 @@
         <v>7.444</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="888" spans="1:8">
       <c r="A888">
         <v>129.69999999999999</v>
       </c>
@@ -20589,7 +20527,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="889" spans="1:8">
       <c r="A889">
         <v>136.5</v>
       </c>
@@ -20615,7 +20553,7 @@
         <v>6.1820000000000004</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="890" spans="1:8">
       <c r="A890">
         <v>143.4</v>
       </c>
@@ -20641,7 +20579,7 @@
         <v>5.5620000000000003</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="891" spans="1:8">
       <c r="A891">
         <v>150.19999999999999</v>
       </c>
@@ -20667,7 +20605,7 @@
         <v>4.9180000000000001</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="892" spans="1:8">
       <c r="A892">
         <v>157</v>
       </c>
@@ -20693,7 +20631,7 @@
         <v>4.266</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="893" spans="1:8">
       <c r="A893">
         <v>163.80000000000001</v>
       </c>
@@ -20719,7 +20657,7 @@
         <v>3.6179999999999999</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="894" spans="1:8">
       <c r="A894">
         <v>170.7</v>
       </c>
@@ -20745,7 +20683,7 @@
         <v>2.944</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="895" spans="1:8">
       <c r="A895">
         <v>177.5</v>
       </c>
@@ -20771,7 +20709,7 @@
         <v>2.2549999999999999</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="896" spans="1:8">
       <c r="A896">
         <v>184.3</v>
       </c>
@@ -20797,7 +20735,7 @@
         <v>1.5389999999999999</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="897" spans="1:8">
       <c r="A897">
         <v>191.1</v>
       </c>
@@ -20823,7 +20761,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="898" spans="1:8">
       <c r="A898">
         <v>198</v>
       </c>
@@ -20849,67 +20787,67 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="902" spans="1:8">
       <c r="A902" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B902" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C902" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D902">
         <v>25000</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="904" spans="1:8">
       <c r="A904" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B904" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C904" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D904" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E904" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F904" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G904" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H904" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8">
       <c r="A905" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B905" t="s">
+        <v>41</v>
+      </c>
+      <c r="C905" t="s">
+        <v>42</v>
+      </c>
+      <c r="D905" t="s">
+        <v>43</v>
+      </c>
+      <c r="E905" t="s">
         <v>44</v>
       </c>
-      <c r="C905" t="s">
+      <c r="F905" t="s">
         <v>45</v>
       </c>
-      <c r="D905" t="s">
-        <v>14</v>
-      </c>
-      <c r="E905" t="s">
-        <v>15</v>
-      </c>
-      <c r="F905" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="906" spans="1:8">
       <c r="A906">
         <v>0</v>
       </c>
@@ -20935,7 +20873,7 @@
         <v>11.398</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="907" spans="1:8">
       <c r="A907">
         <v>7.1</v>
       </c>
@@ -20961,7 +20899,7 @@
         <v>11.433</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="908" spans="1:8">
       <c r="A908">
         <v>14.2</v>
       </c>
@@ -20987,7 +20925,7 @@
         <v>11.481999999999999</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="909" spans="1:8">
       <c r="A909">
         <v>21.2</v>
       </c>
@@ -21013,7 +20951,7 @@
         <v>11.502000000000001</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="910" spans="1:8">
       <c r="A910">
         <v>28.3</v>
       </c>
@@ -21039,7 +20977,7 @@
         <v>11.523999999999999</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="911" spans="1:8">
       <c r="A911">
         <v>35.4</v>
       </c>
@@ -21065,7 +21003,7 @@
         <v>11.525</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="912" spans="1:8">
       <c r="A912">
         <v>42.5</v>
       </c>
@@ -21091,7 +21029,7 @@
         <v>11.538</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="913" spans="1:8">
       <c r="A913">
         <v>49.6</v>
       </c>
@@ -21117,7 +21055,7 @@
         <v>11.59</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="914" spans="1:8">
       <c r="A914">
         <v>56.6</v>
       </c>
@@ -21143,7 +21081,7 @@
         <v>11.497</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="915" spans="1:8">
       <c r="A915">
         <v>63.7</v>
       </c>
@@ -21169,7 +21107,7 @@
         <v>11.423</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="916" spans="1:8">
       <c r="A916">
         <v>70.8</v>
       </c>
@@ -21195,7 +21133,7 @@
         <v>11.316000000000001</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="917" spans="1:8">
       <c r="A917">
         <v>77.900000000000006</v>
       </c>
@@ -21221,7 +21159,7 @@
         <v>11.154</v>
       </c>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="918" spans="1:8">
       <c r="A918">
         <v>85</v>
       </c>
@@ -21247,7 +21185,7 @@
         <v>10.962</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="919" spans="1:8">
       <c r="A919">
         <v>92.1</v>
       </c>
@@ -21273,7 +21211,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="920" spans="1:8">
       <c r="A920">
         <v>99.1</v>
       </c>
@@ -21299,35 +21237,35 @@
         <v>10.536</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="921" spans="1:8">
       <c r="A921">
         <v>106.2</v>
       </c>
       <c r="B921" t="s">
         <v>46</v>
       </c>
-      <c r="C921" t="e" cm="1">
-        <f t="array" ref="C921">-NaN</f>
+      <c r="C921" t="e">
+        <f>-NaN</f>
         <v>#NAME?</v>
       </c>
-      <c r="D921" t="e" cm="1">
-        <f t="array" ref="D921">-NaN</f>
+      <c r="D921" t="e">
+        <f>-NaN</f>
         <v>#NAME?</v>
       </c>
-      <c r="E921" t="e" cm="1">
-        <f t="array" ref="E921">-NaN</f>
+      <c r="E921" t="e">
+        <f>-NaN</f>
         <v>#NAME?</v>
       </c>
-      <c r="F921" t="e" cm="1">
-        <f t="array" ref="F921">-NaN</f>
+      <c r="F921" t="e">
+        <f>-NaN</f>
         <v>#NAME?</v>
       </c>
-      <c r="G921" t="e" cm="1">
-        <f t="array" ref="G921">-NaN</f>
+      <c r="G921" t="e">
+        <f>-NaN</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="922" spans="1:8">
       <c r="A922">
         <v>113.3</v>
       </c>
@@ -21353,7 +21291,7 @@
         <v>9.952</v>
       </c>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="923" spans="1:8">
       <c r="A923">
         <v>120.4</v>
       </c>
@@ -21379,7 +21317,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="924" spans="1:8">
       <c r="A924">
         <v>127.5</v>
       </c>
@@ -21405,7 +21343,7 @@
         <v>8.7690000000000001</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="925" spans="1:8">
       <c r="A925">
         <v>134.5</v>
       </c>
@@ -21431,7 +21369,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="926" spans="1:8">
       <c r="A926">
         <v>141.6</v>
       </c>
@@ -21457,7 +21395,7 @@
         <v>7.2670000000000003</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="927" spans="1:8">
       <c r="A927">
         <v>148.69999999999999</v>
       </c>
@@ -21483,7 +21421,7 @@
         <v>6.5030000000000001</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="928" spans="1:8">
       <c r="A928">
         <v>155.80000000000001</v>
       </c>
@@ -21509,7 +21447,7 @@
         <v>5.6769999999999996</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="929" spans="1:8">
       <c r="A929">
         <v>162.9</v>
       </c>
@@ -21535,7 +21473,7 @@
         <v>4.9349999999999996</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="930" spans="1:8">
       <c r="A930">
         <v>169.9</v>
       </c>
@@ -21561,7 +21499,7 @@
         <v>4.1950000000000003</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="931" spans="1:8">
       <c r="A931">
         <v>177</v>
       </c>
@@ -21587,7 +21525,7 @@
         <v>3.4350000000000001</v>
       </c>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="932" spans="1:8">
       <c r="A932">
         <v>184.1</v>
       </c>
@@ -21613,7 +21551,7 @@
         <v>2.637</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="933" spans="1:8">
       <c r="A933">
         <v>191.2</v>
       </c>
@@ -21639,7 +21577,7 @@
         <v>1.764</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="934" spans="1:8">
       <c r="A934">
         <v>198.3</v>
       </c>
@@ -21665,31 +21603,31 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="935" spans="1:8">
       <c r="A935">
         <v>205.4</v>
       </c>
       <c r="B935" t="s">
         <v>47</v>
       </c>
-      <c r="C935" t="e" cm="1">
-        <f t="array" ref="C935">-NaN</f>
+      <c r="C935" t="e">
+        <f>-NaN</f>
         <v>#NAME?</v>
       </c>
-      <c r="D935" t="e" cm="1">
-        <f t="array" ref="D935">-NaN</f>
+      <c r="D935" t="e">
+        <f>-NaN</f>
         <v>#NAME?</v>
       </c>
-      <c r="E935" t="e" cm="1">
-        <f t="array" ref="E935">-NaN</f>
+      <c r="E935" t="e">
+        <f>-NaN</f>
         <v>#NAME?</v>
       </c>
-      <c r="F935" t="e" cm="1">
-        <f t="array" ref="F935">-NaN</f>
+      <c r="F935" t="e">
+        <f>-NaN</f>
         <v>#NAME?</v>
       </c>
-      <c r="G935" t="e" cm="1">
-        <f t="array" ref="G935">-NaN</f>
+      <c r="G935" t="e">
+        <f>-NaN</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -21697,4 +21635,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Import Data/8x7.xlsx
+++ b/Import Data/8x7.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671CCFD7-DEC3-4DDD-9CA7-8517AC89B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="84" windowWidth="10500" windowHeight="5856"/>
+    <workbookView xWindow="21705" yWindow="2820" windowWidth="14130" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="46">
   <si>
     <t>8x7</t>
   </si>
@@ -155,18 +174,12 @@
   <si>
     <t>(Lbf)</t>
   </si>
-  <si>
-    <t>0.56-NaN</t>
-  </si>
-  <si>
-    <t>1.08-NaN</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +217,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -250,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,16 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I935"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A563" workbookViewId="0">
+      <selection activeCell="B922" sqref="B922"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +568,7 @@
         <v>41998</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -540,12 +597,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -556,7 +613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -579,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -602,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -610,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -627,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -641,7 +698,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -667,7 +724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -687,7 +744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -713,7 +770,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.3</v>
       </c>
@@ -739,7 +796,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.6</v>
       </c>
@@ -765,7 +822,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.9</v>
       </c>
@@ -791,7 +848,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.2</v>
       </c>
@@ -817,7 +874,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.4</v>
       </c>
@@ -843,7 +900,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.7</v>
       </c>
@@ -869,7 +926,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -895,7 +952,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.2999999999999998</v>
       </c>
@@ -921,7 +978,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.6</v>
       </c>
@@ -947,7 +1004,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.9</v>
       </c>
@@ -973,7 +1030,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.2</v>
       </c>
@@ -999,7 +1056,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3.5</v>
       </c>
@@ -1025,7 +1082,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.8</v>
       </c>
@@ -1051,7 +1108,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1077,7 +1134,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4.3</v>
       </c>
@@ -1103,7 +1160,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4.5999999999999996</v>
       </c>
@@ -1129,7 +1186,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.9000000000000004</v>
       </c>
@@ -1155,7 +1212,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.2</v>
       </c>
@@ -1181,7 +1238,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5.5</v>
       </c>
@@ -1207,7 +1264,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.8</v>
       </c>
@@ -1233,7 +1290,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6.1</v>
       </c>
@@ -1259,7 +1316,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6.4</v>
       </c>
@@ -1285,7 +1342,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6.6</v>
       </c>
@@ -1311,7 +1368,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6.9</v>
       </c>
@@ -1337,7 +1394,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7.2</v>
       </c>
@@ -1363,7 +1420,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7.5</v>
       </c>
@@ -1389,7 +1446,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7.8</v>
       </c>
@@ -1415,7 +1472,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8.1</v>
       </c>
@@ -1441,7 +1498,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8.4</v>
       </c>
@@ -1467,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1481,7 +1538,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +1564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1527,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1553,7 +1610,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.6</v>
       </c>
@@ -1579,7 +1636,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.2</v>
       </c>
@@ -1605,7 +1662,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.7</v>
       </c>
@@ -1631,7 +1688,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.2999999999999998</v>
       </c>
@@ -1657,7 +1714,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.9</v>
       </c>
@@ -1683,7 +1740,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3.5</v>
       </c>
@@ -1709,7 +1766,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1735,7 +1792,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4.5999999999999996</v>
       </c>
@@ -1761,7 +1818,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5.2</v>
       </c>
@@ -1787,7 +1844,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5.8</v>
       </c>
@@ -1813,7 +1870,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6.3</v>
       </c>
@@ -1839,7 +1896,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6.9</v>
       </c>
@@ -1865,7 +1922,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7.5</v>
       </c>
@@ -1891,7 +1948,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8.1</v>
       </c>
@@ -1917,7 +1974,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8.6999999999999993</v>
       </c>
@@ -1943,7 +2000,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>9.1999999999999993</v>
       </c>
@@ -1969,7 +2026,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9.8000000000000007</v>
       </c>
@@ -1995,7 +2052,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10.4</v>
       </c>
@@ -2021,7 +2078,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11</v>
       </c>
@@ -2047,7 +2104,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>11.5</v>
       </c>
@@ -2073,7 +2130,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>12.1</v>
       </c>
@@ -2099,7 +2156,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>12.7</v>
       </c>
@@ -2125,7 +2182,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>13.3</v>
       </c>
@@ -2151,7 +2208,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>13.8</v>
       </c>
@@ -2177,7 +2234,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14.4</v>
       </c>
@@ -2203,7 +2260,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>15</v>
       </c>
@@ -2229,7 +2286,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>15.6</v>
       </c>
@@ -2255,7 +2312,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>16.2</v>
       </c>
@@ -2281,7 +2338,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>16.7</v>
       </c>
@@ -2307,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2321,7 +2378,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2347,7 +2404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2367,7 +2424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2393,7 +2450,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.9</v>
       </c>
@@ -2419,7 +2476,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1.7</v>
       </c>
@@ -2445,7 +2502,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2.6</v>
       </c>
@@ -2471,7 +2528,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3.5</v>
       </c>
@@ -2497,7 +2554,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4.3</v>
       </c>
@@ -2523,7 +2580,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5.2</v>
       </c>
@@ -2549,7 +2606,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6.1</v>
       </c>
@@ -2575,7 +2632,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6.9</v>
       </c>
@@ -2601,7 +2658,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>7.8</v>
       </c>
@@ -2627,7 +2684,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>8.6</v>
       </c>
@@ -2653,7 +2710,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>9.5</v>
       </c>
@@ -2679,7 +2736,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10.4</v>
       </c>
@@ -2705,7 +2762,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>11.2</v>
       </c>
@@ -2731,7 +2788,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>12.1</v>
       </c>
@@ -2757,7 +2814,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>13</v>
       </c>
@@ -2783,7 +2840,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>13.8</v>
       </c>
@@ -2809,7 +2866,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>14.7</v>
       </c>
@@ -2835,7 +2892,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>15.6</v>
       </c>
@@ -2861,7 +2918,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>16.399999999999999</v>
       </c>
@@ -2887,7 +2944,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>17.3</v>
       </c>
@@ -2913,7 +2970,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>18.2</v>
       </c>
@@ -2939,7 +2996,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>19</v>
       </c>
@@ -2965,7 +3022,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>19.899999999999999</v>
       </c>
@@ -2991,7 +3048,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20.8</v>
       </c>
@@ -3017,7 +3074,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>21.6</v>
       </c>
@@ -3043,7 +3100,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>22.5</v>
       </c>
@@ -3069,7 +3126,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>23.3</v>
       </c>
@@ -3095,7 +3152,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>24.2</v>
       </c>
@@ -3121,7 +3178,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>25.1</v>
       </c>
@@ -3147,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3161,7 +3218,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3187,7 +3244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3207,7 +3264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3233,7 +3290,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.2</v>
       </c>
@@ -3259,7 +3316,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2.2999999999999998</v>
       </c>
@@ -3285,7 +3342,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3.5</v>
       </c>
@@ -3311,7 +3368,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4.5999999999999996</v>
       </c>
@@ -3337,7 +3394,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5.8</v>
       </c>
@@ -3363,7 +3420,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6.9</v>
       </c>
@@ -3389,7 +3446,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>8.1</v>
       </c>
@@ -3415,7 +3472,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>9.1999999999999993</v>
       </c>
@@ -3441,7 +3498,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>10.4</v>
       </c>
@@ -3467,7 +3524,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>11.5</v>
       </c>
@@ -3493,7 +3550,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>12.7</v>
       </c>
@@ -3519,7 +3576,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>13.8</v>
       </c>
@@ -3545,7 +3602,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>15</v>
       </c>
@@ -3571,7 +3628,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>16.100000000000001</v>
       </c>
@@ -3597,7 +3654,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>17.3</v>
       </c>
@@ -3623,7 +3680,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>18.399999999999999</v>
       </c>
@@ -3649,7 +3706,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>19.600000000000001</v>
       </c>
@@ -3675,7 +3732,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>20.7</v>
       </c>
@@ -3701,7 +3758,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>21.9</v>
       </c>
@@ -3727,7 +3784,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>23.1</v>
       </c>
@@ -3753,7 +3810,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>24.2</v>
       </c>
@@ -3779,7 +3836,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>25.4</v>
       </c>
@@ -3805,7 +3862,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>26.5</v>
       </c>
@@ -3831,7 +3888,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>27.7</v>
       </c>
@@ -3857,7 +3914,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>28.8</v>
       </c>
@@ -3883,7 +3940,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>30</v>
       </c>
@@ -3909,7 +3966,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>31.1</v>
       </c>
@@ -3935,7 +3992,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>32.299999999999997</v>
       </c>
@@ -3961,7 +4018,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>33.4</v>
       </c>
@@ -3987,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4001,7 +4058,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4027,7 +4084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4047,7 +4104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4073,7 +4130,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1.4</v>
       </c>
@@ -4099,7 +4156,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2.9</v>
       </c>
@@ -4125,7 +4182,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4.3</v>
       </c>
@@ -4151,7 +4208,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>5.8</v>
       </c>
@@ -4177,7 +4234,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7.2</v>
       </c>
@@ -4203,7 +4260,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>8.6</v>
       </c>
@@ -4229,7 +4286,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>10.1</v>
       </c>
@@ -4255,7 +4312,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>11.5</v>
       </c>
@@ -4281,7 +4338,7 @@
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>13</v>
       </c>
@@ -4307,7 +4364,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>14.4</v>
       </c>
@@ -4333,7 +4390,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>15.8</v>
       </c>
@@ -4359,7 +4416,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>17.3</v>
       </c>
@@ -4385,7 +4442,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>18.7</v>
       </c>
@@ -4411,7 +4468,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>20.2</v>
       </c>
@@ -4437,7 +4494,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>21.6</v>
       </c>
@@ -4463,7 +4520,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>23</v>
       </c>
@@ -4489,7 +4546,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>24.5</v>
       </c>
@@ -4515,7 +4572,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>25.9</v>
       </c>
@@ -4541,7 +4598,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>27.4</v>
       </c>
@@ -4567,7 +4624,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>28.8</v>
       </c>
@@ -4593,7 +4650,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>30.3</v>
       </c>
@@ -4619,7 +4676,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>31.7</v>
       </c>
@@ -4645,7 +4702,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>33.1</v>
       </c>
@@ -4671,7 +4728,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>34.6</v>
       </c>
@@ -4697,7 +4754,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>36</v>
       </c>
@@ -4723,7 +4780,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>37.5</v>
       </c>
@@ -4749,7 +4806,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>38.9</v>
       </c>
@@ -4775,7 +4832,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>40.299999999999997</v>
       </c>
@@ -4801,7 +4858,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>41.8</v>
       </c>
@@ -4827,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4841,7 +4898,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4867,7 +4924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4887,7 +4944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4913,7 +4970,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1.7</v>
       </c>
@@ -4939,7 +4996,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3.5</v>
       </c>
@@ -4965,7 +5022,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>5.2</v>
       </c>
@@ -4991,7 +5048,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>6.9</v>
       </c>
@@ -5017,7 +5074,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>8.6</v>
       </c>
@@ -5043,7 +5100,7 @@
         <v>0.52200000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>10.4</v>
       </c>
@@ -5069,7 +5126,7 @@
         <v>0.52100000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>12.1</v>
       </c>
@@ -5095,7 +5152,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>13.8</v>
       </c>
@@ -5121,7 +5178,7 @@
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>15.6</v>
       </c>
@@ -5147,7 +5204,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>17.3</v>
       </c>
@@ -5173,7 +5230,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>19</v>
       </c>
@@ -5199,7 +5256,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>20.7</v>
       </c>
@@ -5225,7 +5282,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>22.5</v>
       </c>
@@ -5251,7 +5308,7 @@
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>24.2</v>
       </c>
@@ -5277,7 +5334,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>25.9</v>
       </c>
@@ -5303,7 +5360,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>27.7</v>
       </c>
@@ -5329,7 +5386,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>29.4</v>
       </c>
@@ -5355,7 +5412,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>31.1</v>
       </c>
@@ -5381,7 +5438,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>32.799999999999997</v>
       </c>
@@ -5407,7 +5464,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>34.6</v>
       </c>
@@ -5433,7 +5490,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>36.299999999999997</v>
       </c>
@@ -5459,7 +5516,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>38</v>
       </c>
@@ -5485,7 +5542,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>39.799999999999997</v>
       </c>
@@ -5511,7 +5568,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>41.5</v>
       </c>
@@ -5537,7 +5594,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>43.2</v>
       </c>
@@ -5563,7 +5620,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>44.9</v>
       </c>
@@ -5589,7 +5646,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>46.7</v>
       </c>
@@ -5615,7 +5672,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>48.4</v>
       </c>
@@ -5641,7 +5698,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>50.1</v>
       </c>
@@ -5667,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5681,7 +5738,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5707,7 +5764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5727,7 +5784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5753,7 +5810,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2</v>
       </c>
@@ -5779,7 +5836,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4</v>
       </c>
@@ -5805,7 +5862,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>6</v>
       </c>
@@ -5831,7 +5888,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>8.1</v>
       </c>
@@ -5857,7 +5914,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>10.1</v>
       </c>
@@ -5883,7 +5940,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>12.1</v>
       </c>
@@ -5909,7 +5966,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>14.1</v>
       </c>
@@ -5935,7 +5992,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>16.100000000000001</v>
       </c>
@@ -5961,7 +6018,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>18.100000000000001</v>
       </c>
@@ -5987,7 +6044,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>20.2</v>
       </c>
@@ -6013,7 +6070,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>22.2</v>
       </c>
@@ -6039,7 +6096,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>24.2</v>
       </c>
@@ -6065,7 +6122,7 @@
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>26.2</v>
       </c>
@@ -6091,7 +6148,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>28.2</v>
       </c>
@@ -6117,7 +6174,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>30.2</v>
       </c>
@@ -6143,7 +6200,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>32.200000000000003</v>
       </c>
@@ -6169,7 +6226,7 @@
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>34.299999999999997</v>
       </c>
@@ -6195,7 +6252,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>36.299999999999997</v>
       </c>
@@ -6221,7 +6278,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>38.299999999999997</v>
       </c>
@@ -6247,7 +6304,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>40.299999999999997</v>
       </c>
@@ -6273,7 +6330,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>42.3</v>
       </c>
@@ -6299,7 +6356,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>44.3</v>
       </c>
@@ -6325,7 +6382,7 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>46.3</v>
       </c>
@@ -6351,7 +6408,7 @@
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>48.4</v>
       </c>
@@ -6377,7 +6434,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>50.4</v>
       </c>
@@ -6403,7 +6460,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>52.4</v>
       </c>
@@ -6429,7 +6486,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>54.4</v>
       </c>
@@ -6455,7 +6512,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>56.4</v>
       </c>
@@ -6481,7 +6538,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>58.4</v>
       </c>
@@ -6507,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6521,7 +6578,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6547,7 +6604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6567,7 +6624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6593,7 +6650,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2.2999999999999998</v>
       </c>
@@ -6619,7 +6676,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>4.5999999999999996</v>
       </c>
@@ -6645,7 +6702,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>6.9</v>
       </c>
@@ -6671,7 +6728,7 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>9.1999999999999993</v>
       </c>
@@ -6697,7 +6754,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>11.5</v>
       </c>
@@ -6723,7 +6780,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>13.8</v>
       </c>
@@ -6749,7 +6806,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>16.100000000000001</v>
       </c>
@@ -6775,7 +6832,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>18.399999999999999</v>
       </c>
@@ -6801,7 +6858,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>20.7</v>
       </c>
@@ -6827,7 +6884,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>23</v>
       </c>
@@ -6853,7 +6910,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>25.3</v>
       </c>
@@ -6879,7 +6936,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>27.6</v>
       </c>
@@ -6905,7 +6962,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>29.9</v>
       </c>
@@ -6931,7 +6988,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>32.200000000000003</v>
       </c>
@@ -6957,7 +7014,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>34.5</v>
       </c>
@@ -6983,7 +7040,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>36.799999999999997</v>
       </c>
@@ -7009,7 +7066,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>39.200000000000003</v>
       </c>
@@ -7035,7 +7092,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>41.5</v>
       </c>
@@ -7061,7 +7118,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>43.8</v>
       </c>
@@ -7087,7 +7144,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>46.1</v>
       </c>
@@ -7113,7 +7170,7 @@
         <v>0.55900000000000005</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>48.4</v>
       </c>
@@ -7139,7 +7196,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>50.7</v>
       </c>
@@ -7165,7 +7222,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>53</v>
       </c>
@@ -7191,7 +7248,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>55.3</v>
       </c>
@@ -7217,7 +7274,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>57.6</v>
       </c>
@@ -7243,7 +7300,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>59.9</v>
       </c>
@@ -7269,7 +7326,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>62.2</v>
       </c>
@@ -7295,7 +7352,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>64.5</v>
       </c>
@@ -7321,7 +7378,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>66.8</v>
       </c>
@@ -7347,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7361,7 +7418,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7387,7 +7444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7407,7 +7464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7433,7 +7490,7 @@
         <v>1.1779999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2.6</v>
       </c>
@@ -7459,7 +7516,7 @@
         <v>1.1779999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5.2</v>
       </c>
@@ -7485,7 +7542,7 @@
         <v>1.1779999999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>7.8</v>
       </c>
@@ -7511,7 +7568,7 @@
         <v>1.177</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>10.4</v>
       </c>
@@ -7537,7 +7594,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>13</v>
       </c>
@@ -7563,7 +7620,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>15.5</v>
       </c>
@@ -7589,7 +7646,7 @@
         <v>1.1719999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>18.100000000000001</v>
       </c>
@@ -7615,7 +7672,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>20.7</v>
       </c>
@@ -7641,7 +7698,7 @@
         <v>1.165</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>23.3</v>
       </c>
@@ -7667,7 +7724,7 @@
         <v>1.159</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>25.9</v>
       </c>
@@ -7693,7 +7750,7 @@
         <v>1.151</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>28.5</v>
       </c>
@@ -7719,7 +7776,7 @@
         <v>1.139</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>31.1</v>
       </c>
@@ -7745,7 +7802,7 @@
         <v>1.1220000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>33.700000000000003</v>
       </c>
@@ -7771,7 +7828,7 @@
         <v>1.099</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>36.299999999999997</v>
       </c>
@@ -7797,7 +7854,7 @@
         <v>1.069</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>38.9</v>
       </c>
@@ -7823,7 +7880,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>41.4</v>
       </c>
@@ -7849,7 +7906,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>44</v>
       </c>
@@ -7875,7 +7932,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>46.6</v>
       </c>
@@ -7901,7 +7958,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>49.2</v>
       </c>
@@ -7927,7 +7984,7 @@
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>51.8</v>
       </c>
@@ -7953,7 +8010,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>54.4</v>
       </c>
@@ -7979,7 +8036,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>57</v>
       </c>
@@ -8005,7 +8062,7 @@
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>59.6</v>
       </c>
@@ -8031,7 +8088,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>62.2</v>
       </c>
@@ -8057,7 +8114,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>64.8</v>
       </c>
@@ -8083,7 +8140,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>67.400000000000006</v>
       </c>
@@ -8109,7 +8166,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>69.900000000000006</v>
       </c>
@@ -8135,7 +8192,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>72.5</v>
       </c>
@@ -8161,7 +8218,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>75.099999999999994</v>
       </c>
@@ -8187,7 +8244,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8201,7 +8258,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8227,7 +8284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8247,7 +8304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8273,7 +8330,7 @@
         <v>1.4530000000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2.9</v>
       </c>
@@ -8299,7 +8356,7 @@
         <v>1.452</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5.8</v>
       </c>
@@ -8325,7 +8382,7 @@
         <v>1.452</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>8.6</v>
       </c>
@@ -8351,7 +8408,7 @@
         <v>1.4510000000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>11.5</v>
       </c>
@@ -8377,7 +8434,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>14.4</v>
       </c>
@@ -8403,7 +8460,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>17.3</v>
       </c>
@@ -8429,7 +8486,7 @@
         <v>1.446</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>20.2</v>
       </c>
@@ -8455,7 +8512,7 @@
         <v>1.4419999999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>23</v>
       </c>
@@ -8481,7 +8538,7 @@
         <v>1.4370000000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>25.9</v>
       </c>
@@ -8507,7 +8564,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>28.8</v>
       </c>
@@ -8533,7 +8590,7 @@
         <v>1.421</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>31.7</v>
       </c>
@@ -8559,7 +8616,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>34.5</v>
       </c>
@@ -8585,7 +8642,7 @@
         <v>1.387</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>37.4</v>
       </c>
@@ -8611,7 +8668,7 @@
         <v>1.359</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>40.299999999999997</v>
       </c>
@@ -8637,7 +8694,7 @@
         <v>1.323</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>43.2</v>
       </c>
@@ -8663,7 +8720,7 @@
         <v>1.276</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>46.1</v>
       </c>
@@ -8689,7 +8746,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>48.9</v>
       </c>
@@ -8715,7 +8772,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>51.8</v>
       </c>
@@ -8741,7 +8798,7 @@
         <v>1.054</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>54.7</v>
       </c>
@@ -8767,7 +8824,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>57.6</v>
       </c>
@@ -8793,7 +8850,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>60.5</v>
       </c>
@@ -8819,7 +8876,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>63.3</v>
       </c>
@@ -8845,7 +8902,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>66.2</v>
       </c>
@@ -8871,7 +8928,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>69.099999999999994</v>
       </c>
@@ -8897,7 +8954,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>72</v>
       </c>
@@ -8923,7 +8980,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>74.900000000000006</v>
       </c>
@@ -8949,7 +9006,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>77.7</v>
       </c>
@@ -8975,7 +9032,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>80.599999999999994</v>
       </c>
@@ -9001,7 +9058,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>83.5</v>
       </c>
@@ -9027,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9041,7 +9098,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9067,7 +9124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9087,7 +9144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9113,7 +9170,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>3.2</v>
       </c>
@@ -9139,7 +9196,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>6.3</v>
       </c>
@@ -9165,7 +9222,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>9.5</v>
       </c>
@@ -9191,7 +9248,7 @@
         <v>1.754</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>12.7</v>
       </c>
@@ -9217,7 +9274,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>15.8</v>
       </c>
@@ -9243,7 +9300,7 @@
         <v>1.7509999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>19</v>
       </c>
@@ -9269,7 +9326,7 @@
         <v>1.748</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>22.2</v>
       </c>
@@ -9295,7 +9352,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>25.3</v>
       </c>
@@ -9321,7 +9378,7 @@
         <v>1.7390000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>28.5</v>
       </c>
@@ -9347,7 +9404,7 @@
         <v>1.7310000000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>31.7</v>
       </c>
@@ -9373,7 +9430,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>34.799999999999997</v>
       </c>
@@ -9399,7 +9456,7 @@
         <v>1.704</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>38</v>
       </c>
@@ -9425,7 +9482,7 @@
         <v>1.681</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>41.2</v>
       </c>
@@ -9451,7 +9508,7 @@
         <v>1.649</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>44.3</v>
       </c>
@@ -9477,7 +9534,7 @@
         <v>1.6060000000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>47.5</v>
       </c>
@@ -9503,7 +9560,7 @@
         <v>1.5509999999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>50.7</v>
       </c>
@@ -9529,7 +9586,7 @@
         <v>1.4790000000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>53.8</v>
       </c>
@@ -9555,7 +9612,7 @@
         <v>1.3859999999999999</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>57</v>
       </c>
@@ -9581,7 +9638,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>60.2</v>
       </c>
@@ -9607,7 +9664,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>63.3</v>
       </c>
@@ -9633,7 +9690,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>66.5</v>
       </c>
@@ -9659,7 +9716,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>69.7</v>
       </c>
@@ -9685,7 +9742,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>72.8</v>
       </c>
@@ -9711,7 +9768,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>76</v>
       </c>
@@ -9737,7 +9794,7 @@
         <v>0.61399999999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>79.2</v>
       </c>
@@ -9763,7 +9820,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>82.3</v>
       </c>
@@ -9789,7 +9846,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>85.5</v>
       </c>
@@ -9815,7 +9872,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>88.7</v>
       </c>
@@ -9841,7 +9898,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>91.8</v>
       </c>
@@ -9867,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9881,7 +9938,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9907,7 +9964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9927,7 +9984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -9953,7 +10010,7 @@
         <v>2.0880000000000001</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>3.5</v>
       </c>
@@ -9979,7 +10036,7 @@
         <v>2.0880000000000001</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>6.9</v>
       </c>
@@ -10005,7 +10062,7 @@
         <v>2.0870000000000002</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>10.4</v>
       </c>
@@ -10031,7 +10088,7 @@
         <v>2.0859999999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>13.8</v>
       </c>
@@ -10057,7 +10114,7 @@
         <v>2.085</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>17.3</v>
       </c>
@@ -10083,7 +10140,7 @@
         <v>2.0830000000000002</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>20.7</v>
       </c>
@@ -10109,7 +10166,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>24.2</v>
       </c>
@@ -10135,7 +10192,7 @@
         <v>2.0750000000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>27.6</v>
       </c>
@@ -10161,7 +10218,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>31.1</v>
       </c>
@@ -10187,7 +10244,7 @@
         <v>2.0609999999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>34.5</v>
       </c>
@@ -10213,7 +10270,7 @@
         <v>2.0489999999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>38</v>
       </c>
@@ -10239,7 +10296,7 @@
         <v>2.032</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>41.4</v>
       </c>
@@ -10265,7 +10322,7 @@
         <v>2.0059999999999998</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>44.9</v>
       </c>
@@ -10291,7 +10348,7 @@
         <v>1.9690000000000001</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>48.3</v>
       </c>
@@ -10317,7 +10374,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>51.8</v>
       </c>
@@ -10343,7 +10400,7 @@
         <v>1.8540000000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>55.3</v>
       </c>
@@ -10369,7 +10426,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>58.7</v>
       </c>
@@ -10395,7 +10452,7 @@
         <v>1.6579999999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>62.2</v>
       </c>
@@ -10421,7 +10478,7 @@
         <v>1.534</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>65.599999999999994</v>
       </c>
@@ -10447,7 +10504,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>69.099999999999994</v>
       </c>
@@ -10473,7 +10530,7 @@
         <v>1.278</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>72.5</v>
       </c>
@@ -10499,7 +10556,7 @@
         <v>1.1459999999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>76</v>
       </c>
@@ -10525,7 +10582,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>79.400000000000006</v>
       </c>
@@ -10551,7 +10608,7 @@
         <v>0.874</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>82.9</v>
       </c>
@@ -10577,7 +10634,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>86.3</v>
       </c>
@@ -10603,7 +10660,7 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>89.8</v>
       </c>
@@ -10629,7 +10686,7 @@
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>93.2</v>
       </c>
@@ -10655,7 +10712,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>96.7</v>
       </c>
@@ -10681,7 +10738,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>100.1</v>
       </c>
@@ -10707,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10721,7 +10778,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10747,7 +10804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10767,7 +10824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10793,7 +10850,7 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>3.7</v>
       </c>
@@ -10819,7 +10876,7 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>7.5</v>
       </c>
@@ -10845,7 +10902,7 @@
         <v>2.448</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>11.2</v>
       </c>
@@ -10871,7 +10928,7 @@
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>15</v>
       </c>
@@ -10897,7 +10954,7 @@
         <v>2.4460000000000002</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>18.7</v>
       </c>
@@ -10923,7 +10980,7 @@
         <v>2.444</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>22.4</v>
       </c>
@@ -10949,7 +11006,7 @@
         <v>2.4409999999999998</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>26.2</v>
       </c>
@@ -10975,7 +11032,7 @@
         <v>2.4359999999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>29.9</v>
       </c>
@@ -11001,7 +11058,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>33.700000000000003</v>
       </c>
@@ -11027,7 +11084,7 @@
         <v>2.4209999999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>37.4</v>
       </c>
@@ -11053,7 +11110,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>41.1</v>
       </c>
@@ -11079,7 +11136,7 @@
         <v>2.3889999999999998</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>44.9</v>
       </c>
@@ -11105,7 +11162,7 @@
         <v>2.3610000000000002</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>48.6</v>
       </c>
@@ -11131,7 +11188,7 @@
         <v>2.319</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>52.4</v>
       </c>
@@ -11157,7 +11214,7 @@
         <v>2.262</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>56.1</v>
       </c>
@@ -11183,7 +11240,7 @@
         <v>2.1869999999999998</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>59.8</v>
       </c>
@@ -11209,7 +11266,7 @@
         <v>2.0880000000000001</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>63.6</v>
       </c>
@@ -11235,7 +11292,7 @@
         <v>1.9590000000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>67.3</v>
       </c>
@@ -11261,7 +11318,7 @@
         <v>1.8129999999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>71</v>
       </c>
@@ -11287,7 +11344,7 @@
         <v>1.663</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>74.8</v>
       </c>
@@ -11313,7 +11370,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>78.5</v>
       </c>
@@ -11339,7 +11396,7 @@
         <v>1.3540000000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>82.3</v>
       </c>
@@ -11365,7 +11422,7 @@
         <v>1.1950000000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>86</v>
       </c>
@@ -11391,7 +11448,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>89.7</v>
       </c>
@@ -11417,7 +11474,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>93.5</v>
       </c>
@@ -11443,7 +11500,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>97.2</v>
       </c>
@@ -11469,7 +11526,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>101</v>
       </c>
@@ -11495,7 +11552,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>104.7</v>
       </c>
@@ -11521,7 +11578,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>108.4</v>
       </c>
@@ -11547,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11561,7 +11618,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11587,7 +11644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11607,7 +11664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11633,7 +11690,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>4</v>
       </c>
@@ -11659,7 +11716,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>8.1</v>
       </c>
@@ -11685,7 +11742,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>12.1</v>
       </c>
@@ -11711,7 +11768,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>16.100000000000001</v>
       </c>
@@ -11737,7 +11794,7 @@
         <v>2.855</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>20.100000000000001</v>
       </c>
@@ -11763,7 +11820,7 @@
         <v>2.8540000000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>24.2</v>
       </c>
@@ -11789,7 +11846,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>28.2</v>
       </c>
@@ -11815,7 +11872,7 @@
         <v>2.8460000000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>32.200000000000003</v>
       </c>
@@ -11841,7 +11898,7 @@
         <v>2.8380000000000001</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>36.200000000000003</v>
       </c>
@@ -11867,7 +11924,7 @@
         <v>2.8290000000000002</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>40.299999999999997</v>
       </c>
@@ -11893,7 +11950,7 @@
         <v>2.8140000000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>44.3</v>
       </c>
@@ -11919,7 +11976,7 @@
         <v>2.7919999999999998</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>48.3</v>
       </c>
@@ -11945,7 +12002,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>52.3</v>
       </c>
@@ -11971,7 +12028,7 @@
         <v>2.7130000000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>56.4</v>
       </c>
@@ -11997,7 +12054,7 @@
         <v>2.6459999999999999</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>60.4</v>
       </c>
@@ -12023,7 +12080,7 @@
         <v>2.5569999999999999</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>64.400000000000006</v>
       </c>
@@ -12049,7 +12106,7 @@
         <v>2.4409999999999998</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>68.400000000000006</v>
       </c>
@@ -12075,7 +12132,7 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>72.5</v>
       </c>
@@ -12101,7 +12158,7 @@
         <v>2.1179999999999999</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>76.5</v>
       </c>
@@ -12127,7 +12184,7 @@
         <v>1.9430000000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>80.5</v>
       </c>
@@ -12153,7 +12210,7 @@
         <v>1.764</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>84.5</v>
       </c>
@@ -12179,7 +12236,7 @@
         <v>1.5820000000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>88.6</v>
       </c>
@@ -12205,7 +12262,7 @@
         <v>1.397</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>92.6</v>
       </c>
@@ -12231,7 +12288,7 @@
         <v>1.2070000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>96.6</v>
       </c>
@@ -12257,7 +12314,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>100.7</v>
       </c>
@@ -12283,7 +12340,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>104.7</v>
       </c>
@@ -12309,7 +12366,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>108.7</v>
       </c>
@@ -12335,7 +12392,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>112.7</v>
       </c>
@@ -12361,7 +12418,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>116.8</v>
       </c>
@@ -12387,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>30</v>
       </c>
@@ -12401,7 +12458,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>26</v>
       </c>
@@ -12427,7 +12484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>40</v>
       </c>
@@ -12447,7 +12504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0</v>
       </c>
@@ -12473,7 +12530,7 @@
         <v>3.3279999999999998</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>4.3</v>
       </c>
@@ -12499,7 +12556,7 @@
         <v>3.3290000000000002</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>8.6</v>
       </c>
@@ -12525,7 +12582,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>12.9</v>
       </c>
@@ -12551,7 +12608,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>17.3</v>
       </c>
@@ -12577,7 +12634,7 @@
         <v>3.3290000000000002</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>21.6</v>
       </c>
@@ -12603,7 +12660,7 @@
         <v>3.3260000000000001</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>25.9</v>
       </c>
@@ -12629,7 +12686,7 @@
         <v>3.3220000000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>30.2</v>
       </c>
@@ -12655,7 +12712,7 @@
         <v>3.3149999999999999</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>34.5</v>
       </c>
@@ -12681,7 +12738,7 @@
         <v>3.3050000000000002</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>38.799999999999997</v>
       </c>
@@ -12707,7 +12764,7 @@
         <v>3.2919999999999998</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>43.1</v>
       </c>
@@ -12733,7 +12790,7 @@
         <v>3.2719999999999998</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>47.4</v>
       </c>
@@ -12759,7 +12816,7 @@
         <v>3.246</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>51.8</v>
       </c>
@@ -12785,7 +12842,7 @@
         <v>3.206</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>56.1</v>
       </c>
@@ -12811,7 +12868,7 @@
         <v>3.149</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>60.4</v>
       </c>
@@ -12837,7 +12894,7 @@
         <v>3.069</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>64.7</v>
       </c>
@@ -12863,7 +12920,7 @@
         <v>2.9630000000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>69</v>
       </c>
@@ -12889,7 +12946,7 @@
         <v>2.827</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>73.3</v>
       </c>
@@ -12915,7 +12972,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>77.599999999999994</v>
       </c>
@@ -12941,7 +12998,7 @@
         <v>2.4510000000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>81.900000000000006</v>
       </c>
@@ -12967,7 +13024,7 @@
         <v>2.2490000000000001</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>86.3</v>
       </c>
@@ -12993,7 +13050,7 @@
         <v>2.0430000000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>90.6</v>
       </c>
@@ -13019,7 +13076,7 @@
         <v>1.8320000000000001</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>94.9</v>
       </c>
@@ -13045,7 +13102,7 @@
         <v>1.6160000000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>99.2</v>
       </c>
@@ -13071,7 +13128,7 @@
         <v>1.3979999999999999</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>103.5</v>
       </c>
@@ -13097,7 +13154,7 @@
         <v>1.175</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>107.8</v>
       </c>
@@ -13123,7 +13180,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>112.1</v>
       </c>
@@ -13149,7 +13206,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>116.4</v>
       </c>
@@ -13175,7 +13232,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>120.8</v>
       </c>
@@ -13201,7 +13258,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>125.1</v>
       </c>
@@ -13227,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>30</v>
       </c>
@@ -13241,7 +13298,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>26</v>
       </c>
@@ -13267,7 +13324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>40</v>
       </c>
@@ -13287,7 +13344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>0</v>
       </c>
@@ -13313,7 +13370,7 @@
         <v>3.8420000000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>4.5999999999999996</v>
       </c>
@@ -13339,7 +13396,7 @@
         <v>3.8439999999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>9.1999999999999993</v>
       </c>
@@ -13365,7 +13422,7 @@
         <v>3.8460000000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>13.8</v>
       </c>
@@ -13391,7 +13448,7 @@
         <v>3.8460000000000001</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>18.399999999999999</v>
       </c>
@@ -13417,7 +13474,7 @@
         <v>3.8450000000000002</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>23</v>
       </c>
@@ -13443,7 +13500,7 @@
         <v>3.8420000000000001</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>27.6</v>
       </c>
@@ -13469,7 +13526,7 @@
         <v>3.8359999999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>32.200000000000003</v>
       </c>
@@ -13495,7 +13552,7 @@
         <v>3.827</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>36.799999999999997</v>
       </c>
@@ -13521,7 +13578,7 @@
         <v>3.8140000000000001</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>41.4</v>
       </c>
@@ -13547,7 +13604,7 @@
         <v>3.7970000000000002</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>45.9</v>
       </c>
@@ -13573,7 +13630,7 @@
         <v>3.7730000000000001</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>50.5</v>
       </c>
@@ -13599,7 +13656,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>55.1</v>
       </c>
@@ -13625,7 +13682,7 @@
         <v>3.694</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>59.7</v>
       </c>
@@ -13651,7 +13708,7 @@
         <v>3.6269999999999998</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>64.3</v>
       </c>
@@ -13677,7 +13734,7 @@
         <v>3.5339999999999998</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>68.900000000000006</v>
       </c>
@@ -13703,7 +13760,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>73.5</v>
       </c>
@@ -13729,7 +13786,7 @@
         <v>3.2509999999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>78.099999999999994</v>
       </c>
@@ -13755,7 +13812,7 @@
         <v>3.0489999999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>82.7</v>
       </c>
@@ -13781,7 +13838,7 @@
         <v>2.8180000000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>87.3</v>
       </c>
@@ -13807,7 +13864,7 @@
         <v>2.5859999999999999</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>91.9</v>
       </c>
@@ -13833,7 +13890,7 @@
         <v>2.3490000000000002</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>96.5</v>
       </c>
@@ -13859,7 +13916,7 @@
         <v>2.1080000000000001</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>101.1</v>
       </c>
@@ -13885,7 +13942,7 @@
         <v>1.8620000000000001</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>105.7</v>
       </c>
@@ -13911,7 +13968,7 @@
         <v>1.611</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>110.3</v>
       </c>
@@ -13937,7 +13994,7 @@
         <v>1.355</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>114.9</v>
       </c>
@@ -13963,7 +14020,7 @@
         <v>1.093</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>119.5</v>
       </c>
@@ -13989,7 +14046,7 @@
         <v>0.82599999999999996</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>124.1</v>
       </c>
@@ -14015,7 +14072,7 @@
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>128.69999999999999</v>
       </c>
@@ -14041,7 +14098,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>133.30000000000001</v>
       </c>
@@ -14067,7 +14124,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>30</v>
       </c>
@@ -14081,7 +14138,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>26</v>
       </c>
@@ -14107,7 +14164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>40</v>
       </c>
@@ -14127,7 +14184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0</v>
       </c>
@@ -14153,7 +14210,7 @@
         <v>4.4009999999999998</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>4.9000000000000004</v>
       </c>
@@ -14179,7 +14236,7 @@
         <v>4.4050000000000002</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>9.8000000000000007</v>
       </c>
@@ -14205,7 +14262,7 @@
         <v>4.4080000000000004</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>14.6</v>
       </c>
@@ -14231,7 +14288,7 @@
         <v>4.4089999999999998</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>19.5</v>
       </c>
@@ -14257,7 +14314,7 @@
         <v>4.4080000000000004</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>24.4</v>
       </c>
@@ -14283,7 +14340,7 @@
         <v>4.4039999999999999</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>29.3</v>
       </c>
@@ -14309,7 +14366,7 @@
         <v>4.3970000000000002</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>34.200000000000003</v>
       </c>
@@ -14335,7 +14392,7 @@
         <v>4.3860000000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>39</v>
       </c>
@@ -14361,7 +14418,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>43.9</v>
       </c>
@@ -14387,7 +14444,7 @@
         <v>4.3479999999999999</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>48.8</v>
       </c>
@@ -14413,7 +14470,7 @@
         <v>4.319</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>53.7</v>
       </c>
@@ -14439,7 +14496,7 @@
         <v>4.2789999999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>58.6</v>
       </c>
@@ -14465,7 +14522,7 @@
         <v>4.226</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>63.4</v>
       </c>
@@ -14491,7 +14548,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>68.3</v>
       </c>
@@ -14517,7 +14574,7 @@
         <v>4.0410000000000004</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>73.2</v>
       </c>
@@ -14543,7 +14600,7 @@
         <v>3.8969999999999998</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>78.099999999999994</v>
       </c>
@@ -14569,7 +14626,7 @@
         <v>3.7109999999999999</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>83</v>
       </c>
@@ -14595,7 +14652,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>87.8</v>
       </c>
@@ -14621,7 +14678,7 @@
         <v>3.214</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>92.7</v>
       </c>
@@ -14647,7 +14704,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>97.6</v>
       </c>
@@ -14673,7 +14730,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>102.5</v>
       </c>
@@ -14699,7 +14756,7 @@
         <v>2.4049999999999998</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>107.4</v>
       </c>
@@ -14725,7 +14782,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>112.2</v>
       </c>
@@ -14751,7 +14808,7 @@
         <v>1.8380000000000001</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>117.1</v>
       </c>
@@ -14777,7 +14834,7 @@
         <v>1.5469999999999999</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>122</v>
       </c>
@@ -14803,7 +14860,7 @@
         <v>1.2490000000000001</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>126.9</v>
       </c>
@@ -14829,7 +14886,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>131.80000000000001</v>
       </c>
@@ -14855,7 +14912,7 @@
         <v>0.63400000000000001</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>136.6</v>
       </c>
@@ -14881,7 +14938,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>141.5</v>
       </c>
@@ -14907,7 +14964,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>30</v>
       </c>
@@ -14921,7 +14978,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>26</v>
       </c>
@@ -14947,7 +15004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>40</v>
       </c>
@@ -14967,7 +15024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>0</v>
       </c>
@@ -14993,7 +15050,7 @@
         <v>5.0030000000000001</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>5.2</v>
       </c>
@@ -15019,7 +15076,7 @@
         <v>5.0090000000000003</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>10.3</v>
       </c>
@@ -15045,7 +15102,7 @@
         <v>5.0129999999999999</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>15.5</v>
       </c>
@@ -15071,7 +15128,7 @@
         <v>5.0140000000000002</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>20.7</v>
       </c>
@@ -15097,7 +15154,7 @@
         <v>5.0129999999999999</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>25.8</v>
       </c>
@@ -15123,7 +15180,7 @@
         <v>5.008</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>31</v>
       </c>
@@ -15149,7 +15206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>36.200000000000003</v>
       </c>
@@ -15175,7 +15232,7 @@
         <v>4.9859999999999998</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>41.3</v>
       </c>
@@ -15201,7 +15258,7 @@
         <v>4.9660000000000002</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>46.5</v>
       </c>
@@ -15227,7 +15284,7 @@
         <v>4.9390000000000001</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>51.7</v>
       </c>
@@ -15253,7 +15310,7 @@
         <v>4.9039999999999999</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>56.8</v>
       </c>
@@ -15279,7 +15336,7 @@
         <v>4.8570000000000002</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>62</v>
       </c>
@@ -15305,7 +15362,7 @@
         <v>4.7960000000000003</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>67.2</v>
       </c>
@@ -15331,7 +15388,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>72.3</v>
       </c>
@@ -15357,7 +15414,7 @@
         <v>4.5880000000000001</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>77.5</v>
       </c>
@@ -15383,7 +15440,7 @@
         <v>4.423</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>82.7</v>
       </c>
@@ -15409,7 +15466,7 @@
         <v>4.2110000000000003</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>87.8</v>
       </c>
@@ -15435,7 +15492,7 @@
         <v>3.9470000000000001</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>93</v>
       </c>
@@ -15461,7 +15518,7 @@
         <v>3.6440000000000001</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>98.2</v>
       </c>
@@ -15487,7 +15544,7 @@
         <v>3.3439999999999999</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>103.3</v>
       </c>
@@ -15513,7 +15570,7 @@
         <v>3.0379999999999998</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>108.5</v>
       </c>
@@ -15539,7 +15596,7 @@
         <v>2.726</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>113.7</v>
       </c>
@@ -15565,7 +15622,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>118.8</v>
       </c>
@@ -15591,7 +15648,7 @@
         <v>2.0830000000000002</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>124</v>
       </c>
@@ -15617,7 +15674,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>129.19999999999999</v>
       </c>
@@ -15643,7 +15700,7 @@
         <v>1.415</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>134.30000000000001</v>
       </c>
@@ -15669,7 +15726,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>139.5</v>
       </c>
@@ -15695,7 +15752,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>144.69999999999999</v>
       </c>
@@ -15721,7 +15778,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>149.80000000000001</v>
       </c>
@@ -15747,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>30</v>
       </c>
@@ -15761,7 +15818,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>26</v>
       </c>
@@ -15787,7 +15844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>40</v>
       </c>
@@ -15807,7 +15864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>0</v>
       </c>
@@ -15833,7 +15890,7 @@
         <v>5.6529999999999996</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>5.4</v>
       </c>
@@ -15859,7 +15916,7 @@
         <v>5.6609999999999996</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>10.9</v>
       </c>
@@ -15885,7 +15942,7 @@
         <v>5.6669999999999998</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>16.3</v>
       </c>
@@ -15911,7 +15968,7 @@
         <v>5.6689999999999996</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>21.8</v>
       </c>
@@ -15937,7 +15994,7 @@
         <v>5.6689999999999996</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>27.2</v>
       </c>
@@ -15963,7 +16020,7 @@
         <v>5.6639999999999997</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>32.700000000000003</v>
       </c>
@@ -15989,7 +16046,7 @@
         <v>5.6539999999999999</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>38.1</v>
       </c>
@@ -16015,7 +16072,7 @@
         <v>5.6379999999999999</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>43.6</v>
       </c>
@@ -16041,7 +16098,7 @@
         <v>5.6150000000000002</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>49</v>
       </c>
@@ -16067,7 +16124,7 @@
         <v>5.5819999999999999</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>54.5</v>
       </c>
@@ -16093,7 +16150,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>59.9</v>
       </c>
@@ -16119,7 +16176,7 @@
         <v>5.4850000000000003</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>65.400000000000006</v>
       </c>
@@ -16145,7 +16202,7 @@
         <v>5.4139999999999997</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>70.8</v>
       </c>
@@ -16171,7 +16228,7 @@
         <v>5.319</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>76.3</v>
       </c>
@@ -16197,7 +16254,7 @@
         <v>5.1840000000000002</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>81.7</v>
       </c>
@@ -16223,7 +16280,7 @@
         <v>4.9969999999999999</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>87.2</v>
       </c>
@@ -16249,7 +16306,7 @@
         <v>4.7560000000000002</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>92.6</v>
       </c>
@@ -16275,7 +16332,7 @@
         <v>4.4580000000000002</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>98.1</v>
       </c>
@@ -16301,7 +16358,7 @@
         <v>4.1130000000000004</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>103.5</v>
       </c>
@@ -16327,7 +16384,7 @@
         <v>3.7749999999999999</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>109</v>
       </c>
@@ -16353,7 +16410,7 @@
         <v>3.431</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>114.4</v>
       </c>
@@ -16379,7 +16436,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>119.9</v>
       </c>
@@ -16405,7 +16462,7 @@
         <v>2.7210000000000001</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>125.3</v>
       </c>
@@ -16431,7 +16488,7 @@
         <v>2.355</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>130.80000000000001</v>
       </c>
@@ -16457,7 +16514,7 @@
         <v>1.982</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>136.19999999999999</v>
       </c>
@@ -16483,7 +16540,7 @@
         <v>1.601</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>141.69999999999999</v>
       </c>
@@ -16509,7 +16566,7 @@
         <v>1.212</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>147.1</v>
       </c>
@@ -16535,7 +16592,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>152.6</v>
       </c>
@@ -16561,7 +16618,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>158</v>
       </c>
@@ -16587,7 +16644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>30</v>
       </c>
@@ -16601,7 +16658,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>26</v>
       </c>
@@ -16627,7 +16684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>40</v>
       </c>
@@ -16647,7 +16704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>0</v>
       </c>
@@ -16673,7 +16730,7 @@
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>5.7</v>
       </c>
@@ -16699,7 +16756,7 @@
         <v>6.3630000000000004</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>11.5</v>
       </c>
@@ -16725,7 +16782,7 @@
         <v>6.3710000000000004</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>17.2</v>
       </c>
@@ -16751,7 +16808,7 @@
         <v>6.3760000000000003</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>22.9</v>
       </c>
@@ -16777,7 +16834,7 @@
         <v>6.375</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>28.7</v>
       </c>
@@ -16803,7 +16860,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>34.4</v>
       </c>
@@ -16829,7 +16886,7 @@
         <v>6.3579999999999997</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>40.1</v>
       </c>
@@ -16855,7 +16912,7 @@
         <v>6.3390000000000004</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>45.9</v>
       </c>
@@ -16881,7 +16938,7 @@
         <v>6.3109999999999999</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>51.6</v>
       </c>
@@ -16907,7 +16964,7 @@
         <v>6.274</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>57.3</v>
       </c>
@@ -16933,7 +16990,7 @@
         <v>6.2240000000000002</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>63.1</v>
       </c>
@@ -16959,7 +17016,7 @@
         <v>6.1609999999999996</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>68.8</v>
       </c>
@@ -16985,7 +17042,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>74.5</v>
       </c>
@@ -17011,7 +17068,7 @@
         <v>5.9749999999999996</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>80.3</v>
       </c>
@@ -17037,7 +17094,7 @@
         <v>5.8289999999999997</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>86</v>
       </c>
@@ -17063,7 +17120,7 @@
         <v>5.6219999999999999</v>
       </c>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>91.7</v>
       </c>
@@ -17089,7 +17146,7 @@
         <v>5.3479999999999999</v>
       </c>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>97.5</v>
       </c>
@@ -17115,7 +17172,7 @@
         <v>5.0129999999999999</v>
       </c>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>103.2</v>
       </c>
@@ -17141,7 +17198,7 @@
         <v>4.6239999999999997</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>109</v>
       </c>
@@ -17167,7 +17224,7 @@
         <v>4.2450000000000001</v>
       </c>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>114.7</v>
       </c>
@@ -17193,7 +17250,7 @@
         <v>3.8580000000000001</v>
       </c>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>120.4</v>
       </c>
@@ -17219,7 +17276,7 @@
         <v>3.4630000000000001</v>
       </c>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>126.2</v>
       </c>
@@ -17245,7 +17302,7 @@
         <v>3.0609999999999999</v>
       </c>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>131.9</v>
       </c>
@@ -17271,7 +17328,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>137.6</v>
       </c>
@@ -17297,7 +17354,7 @@
         <v>2.2309999999999999</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>143.4</v>
       </c>
@@ -17323,7 +17380,7 @@
         <v>1.802</v>
       </c>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>149.1</v>
       </c>
@@ -17349,7 +17406,7 @@
         <v>1.363</v>
       </c>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>154.80000000000001</v>
       </c>
@@ -17375,7 +17432,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>160.6</v>
       </c>
@@ -17401,7 +17458,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>166.3</v>
       </c>
@@ -17427,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>30</v>
       </c>
@@ -17441,7 +17498,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>26</v>
       </c>
@@ -17467,7 +17524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>40</v>
       </c>
@@ -17487,7 +17544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>0</v>
       </c>
@@ -17513,7 +17570,7 @@
         <v>7.101</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>6</v>
       </c>
@@ -17539,7 +17596,7 @@
         <v>7.117</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>12</v>
       </c>
@@ -17565,7 +17622,7 @@
         <v>7.1280000000000001</v>
       </c>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>18.100000000000001</v>
       </c>
@@ -17591,7 +17648,7 @@
         <v>7.1340000000000003</v>
       </c>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>24.1</v>
       </c>
@@ -17617,7 +17674,7 @@
         <v>7.1349999999999998</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>30.1</v>
       </c>
@@ -17643,7 +17700,7 @@
         <v>7.1289999999999996</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>36.1</v>
       </c>
@@ -17669,7 +17726,7 @@
         <v>7.117</v>
       </c>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>42.1</v>
       </c>
@@ -17695,7 +17752,7 @@
         <v>7.0960000000000001</v>
       </c>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>48.1</v>
       </c>
@@ -17721,7 +17778,7 @@
         <v>7.0629999999999997</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>54.2</v>
       </c>
@@ -17747,7 +17804,7 @@
         <v>7.02</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>60.2</v>
       </c>
@@ -17773,7 +17830,7 @@
         <v>6.9619999999999997</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>66.2</v>
       </c>
@@ -17799,7 +17856,7 @@
         <v>6.8890000000000002</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>72.2</v>
       </c>
@@ -17825,7 +17882,7 @@
         <v>6.798</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>78.2</v>
       </c>
@@ -17851,7 +17908,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>84.3</v>
       </c>
@@ -17877,7 +17934,7 @@
         <v>6.524</v>
       </c>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>90.3</v>
       </c>
@@ -17903,7 +17960,7 @@
         <v>6.3019999999999996</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>96.3</v>
       </c>
@@ -17929,7 +17986,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>102.3</v>
       </c>
@@ -17955,7 +18012,7 @@
         <v>5.6219999999999999</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>108.3</v>
       </c>
@@ -17981,7 +18038,7 @@
         <v>5.1829999999999998</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>114.3</v>
       </c>
@@ -18007,7 +18064,7 @@
         <v>4.758</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>120.4</v>
       </c>
@@ -18033,7 +18090,7 @@
         <v>4.3250000000000002</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>126.4</v>
       </c>
@@ -18059,7 +18116,7 @@
         <v>3.8839999999999999</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>132.4</v>
       </c>
@@ -18085,7 +18142,7 @@
         <v>3.4340000000000002</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>138.4</v>
       </c>
@@ -18111,7 +18168,7 @@
         <v>2.9740000000000002</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>144.4</v>
       </c>
@@ -18137,7 +18194,7 @@
         <v>2.5059999999999998</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>150.4</v>
       </c>
@@ -18163,7 +18220,7 @@
         <v>2.024</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>156.5</v>
       </c>
@@ -18189,7 +18246,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>162.5</v>
       </c>
@@ -18215,7 +18272,7 @@
         <v>1.034</v>
       </c>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>168.5</v>
       </c>
@@ -18241,7 +18298,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>174.5</v>
       </c>
@@ -18267,7 +18324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>30</v>
       </c>
@@ -18281,7 +18338,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>26</v>
       </c>
@@ -18307,7 +18364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>40</v>
       </c>
@@ -18327,7 +18384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>0</v>
       </c>
@@ -18353,7 +18410,7 @@
         <v>7.9130000000000003</v>
       </c>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>6.3</v>
       </c>
@@ -18379,7 +18436,7 @@
         <v>7.9329999999999998</v>
       </c>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>12.6</v>
       </c>
@@ -18405,7 +18462,7 @@
         <v>7.9480000000000004</v>
       </c>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>18.899999999999999</v>
       </c>
@@ -18431,7 +18488,7 @@
         <v>7.9569999999999999</v>
       </c>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>25.2</v>
       </c>
@@ -18457,7 +18514,7 @@
         <v>7.9589999999999996</v>
       </c>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>31.5</v>
       </c>
@@ -18483,7 +18540,7 @@
         <v>7.9539999999999997</v>
       </c>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>37.799999999999997</v>
       </c>
@@ -18509,7 +18566,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>44.1</v>
       </c>
@@ -18535,7 +18592,7 @@
         <v>7.9169999999999998</v>
       </c>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>50.4</v>
       </c>
@@ -18561,7 +18618,7 @@
         <v>7.883</v>
       </c>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>56.7</v>
       </c>
@@ -18587,7 +18644,7 @@
         <v>7.8330000000000002</v>
       </c>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>63</v>
       </c>
@@ -18613,7 +18670,7 @@
         <v>7.7690000000000001</v>
       </c>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>69.3</v>
       </c>
@@ -18639,7 +18696,7 @@
         <v>7.6879999999999997</v>
       </c>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>75.599999999999994</v>
       </c>
@@ -18665,7 +18722,7 @@
         <v>7.585</v>
       </c>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>81.900000000000006</v>
       </c>
@@ -18691,7 +18748,7 @@
         <v>7.4569999999999999</v>
       </c>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>88.2</v>
       </c>
@@ -18717,7 +18774,7 @@
         <v>7.2939999999999996</v>
       </c>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>94.5</v>
       </c>
@@ -18743,7 +18800,7 @@
         <v>7.0590000000000002</v>
       </c>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>100.8</v>
       </c>
@@ -18769,7 +18826,7 @@
         <v>6.7210000000000001</v>
       </c>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>107.1</v>
       </c>
@@ -18795,7 +18852,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>113.4</v>
       </c>
@@ -18821,7 +18878,7 @@
         <v>5.806</v>
       </c>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>119.7</v>
       </c>
@@ -18847,7 +18904,7 @@
         <v>5.327</v>
       </c>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>125.9</v>
       </c>
@@ -18873,7 +18930,7 @@
         <v>4.8460000000000001</v>
       </c>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>132.19999999999999</v>
       </c>
@@ -18899,7 +18956,7 @@
         <v>4.3550000000000004</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>138.5</v>
       </c>
@@ -18925,7 +18982,7 @@
         <v>3.8530000000000002</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>144.80000000000001</v>
       </c>
@@ -18951,7 +19008,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>151.1</v>
       </c>
@@ -18977,7 +19034,7 @@
         <v>2.8159999999999998</v>
       </c>
     </row>
-    <row r="820" spans="1:8">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>157.4</v>
       </c>
@@ -19003,7 +19060,7 @@
         <v>2.278</v>
       </c>
     </row>
-    <row r="821" spans="1:8">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>163.69999999999999</v>
       </c>
@@ -19029,7 +19086,7 @@
         <v>1.732</v>
       </c>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>170</v>
       </c>
@@ -19055,7 +19112,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>176.3</v>
       </c>
@@ -19081,7 +19138,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>182.6</v>
       </c>
@@ -19107,7 +19164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>30</v>
       </c>
@@ -19121,7 +19178,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>26</v>
       </c>
@@ -19147,7 +19204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>40</v>
       </c>
@@ -19167,7 +19224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>0</v>
       </c>
@@ -19193,7 +19250,7 @@
         <v>8.8040000000000003</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>6.6</v>
       </c>
@@ -19219,7 +19276,7 @@
         <v>8.827</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>13.1</v>
       </c>
@@ -19245,7 +19302,7 @@
         <v>8.8469999999999995</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>19.7</v>
       </c>
@@ -19271,7 +19328,7 @@
         <v>8.8620000000000001</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>26.3</v>
       </c>
@@ -19297,7 +19354,7 @@
         <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>32.799999999999997</v>
       </c>
@@ -19323,7 +19380,7 @@
         <v>8.8689999999999998</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>39.4</v>
       </c>
@@ -19349,7 +19406,7 @@
         <v>8.8580000000000005</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>45.9</v>
       </c>
@@ -19375,7 +19432,7 @@
         <v>8.8339999999999996</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>52.5</v>
       </c>
@@ -19401,7 +19458,7 @@
         <v>8.798</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>59.1</v>
       </c>
@@ -19427,7 +19484,7 @@
         <v>8.7460000000000004</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>65.599999999999994</v>
       </c>
@@ -19453,7 +19510,7 @@
         <v>8.6750000000000007</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>72.2</v>
       </c>
@@ -19479,7 +19536,7 @@
         <v>8.5869999999999997</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>78.8</v>
       </c>
@@ -19505,7 +19562,7 @@
         <v>8.4760000000000009</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>85.3</v>
       </c>
@@ -19531,7 +19588,7 @@
         <v>8.3379999999999992</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>91.9</v>
       </c>
@@ -19557,7 +19614,7 @@
         <v>8.1709999999999994</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>98.4</v>
       </c>
@@ -19583,7 +19640,7 @@
         <v>7.9489999999999998</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>105</v>
       </c>
@@ -19609,7 +19666,7 @@
         <v>7.5810000000000004</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>111.6</v>
       </c>
@@ -19635,7 +19692,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>118.1</v>
       </c>
@@ -19661,7 +19718,7 @@
         <v>6.5359999999999996</v>
       </c>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>124.7</v>
       </c>
@@ -19687,7 +19744,7 @@
         <v>5.9870000000000001</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>131.30000000000001</v>
       </c>
@@ -19713,7 +19770,7 @@
         <v>5.452</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>137.80000000000001</v>
       </c>
@@ -19739,7 +19796,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>144.4</v>
       </c>
@@ -19765,7 +19822,7 @@
         <v>4.3440000000000003</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>150.9</v>
       </c>
@@ -19791,7 +19848,7 @@
         <v>3.7709999999999999</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>157.5</v>
       </c>
@@ -19817,7 +19874,7 @@
         <v>3.1890000000000001</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>164.1</v>
       </c>
@@ -19843,7 +19900,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>170.6</v>
       </c>
@@ -19869,7 +19926,7 @@
         <v>1.982</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>177.2</v>
       </c>
@@ -19895,7 +19952,7 @@
         <v>1.343</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>183.8</v>
       </c>
@@ -19921,7 +19978,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>190.3</v>
       </c>
@@ -19947,7 +20004,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>30</v>
       </c>
@@ -19961,7 +20018,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>26</v>
       </c>
@@ -19987,7 +20044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>40</v>
       </c>
@@ -20007,7 +20064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>0</v>
       </c>
@@ -20033,7 +20090,7 @@
         <v>9.9890000000000008</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>6.8</v>
       </c>
@@ -20059,7 +20116,7 @@
         <v>10.019</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>13.7</v>
       </c>
@@ -20085,7 +20142,7 @@
         <v>10.048</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>20.5</v>
       </c>
@@ -20111,7 +20168,7 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>27.3</v>
       </c>
@@ -20137,7 +20194,7 @@
         <v>10.103999999999999</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>34.1</v>
       </c>
@@ -20163,7 +20220,7 @@
         <v>10.101000000000001</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>41</v>
       </c>
@@ -20189,7 +20246,7 @@
         <v>10.098000000000001</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>47.8</v>
       </c>
@@ -20215,7 +20272,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>54.6</v>
       </c>
@@ -20241,7 +20298,7 @@
         <v>10.007999999999999</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>61.4</v>
       </c>
@@ -20267,7 +20324,7 @@
         <v>9.9610000000000003</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>68.3</v>
       </c>
@@ -20293,7 +20350,7 @@
         <v>9.8940000000000001</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>75.099999999999994</v>
       </c>
@@ -20319,7 +20376,7 @@
         <v>9.8119999999999994</v>
       </c>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>81.900000000000006</v>
       </c>
@@ -20345,7 +20402,7 @@
         <v>9.673</v>
       </c>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>88.7</v>
       </c>
@@ -20371,7 +20428,7 @@
         <v>9.5229999999999997</v>
       </c>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>95.6</v>
       </c>
@@ -20397,7 +20454,7 @@
         <v>9.3160000000000007</v>
       </c>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>102.4</v>
       </c>
@@ -20423,7 +20480,7 @@
         <v>9.0670000000000002</v>
       </c>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>109.2</v>
       </c>
@@ -20449,7 +20506,7 @@
         <v>8.7449999999999992</v>
       </c>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>116.1</v>
       </c>
@@ -20475,7 +20532,7 @@
         <v>8.1509999999999998</v>
       </c>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>122.9</v>
       </c>
@@ -20501,7 +20558,7 @@
         <v>7.444</v>
       </c>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>129.69999999999999</v>
       </c>
@@ -20527,7 +20584,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>136.5</v>
       </c>
@@ -20553,7 +20610,7 @@
         <v>6.1820000000000004</v>
       </c>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>143.4</v>
       </c>
@@ -20579,7 +20636,7 @@
         <v>5.5620000000000003</v>
       </c>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>150.19999999999999</v>
       </c>
@@ -20605,7 +20662,7 @@
         <v>4.9180000000000001</v>
       </c>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>157</v>
       </c>
@@ -20631,7 +20688,7 @@
         <v>4.266</v>
       </c>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>163.80000000000001</v>
       </c>
@@ -20657,7 +20714,7 @@
         <v>3.6179999999999999</v>
       </c>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>170.7</v>
       </c>
@@ -20683,7 +20740,7 @@
         <v>2.944</v>
       </c>
     </row>
-    <row r="895" spans="1:8">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>177.5</v>
       </c>
@@ -20709,7 +20766,7 @@
         <v>2.2549999999999999</v>
       </c>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>184.3</v>
       </c>
@@ -20735,7 +20792,7 @@
         <v>1.5389999999999999</v>
       </c>
     </row>
-    <row r="897" spans="1:8">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>191.1</v>
       </c>
@@ -20761,7 +20818,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="898" spans="1:8">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>198</v>
       </c>
@@ -20787,7 +20844,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>30</v>
       </c>
@@ -20801,7 +20858,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>26</v>
       </c>
@@ -20827,7 +20884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>40</v>
       </c>
@@ -20847,7 +20904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>0</v>
       </c>
@@ -20873,7 +20930,7 @@
         <v>11.398</v>
       </c>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>7.1</v>
       </c>
@@ -20899,7 +20956,7 @@
         <v>11.433</v>
       </c>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>14.2</v>
       </c>
@@ -20925,7 +20982,7 @@
         <v>11.481999999999999</v>
       </c>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>21.2</v>
       </c>
@@ -20951,7 +21008,7 @@
         <v>11.502000000000001</v>
       </c>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>28.3</v>
       </c>
@@ -20977,7 +21034,7 @@
         <v>11.523999999999999</v>
       </c>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>35.4</v>
       </c>
@@ -21003,7 +21060,7 @@
         <v>11.525</v>
       </c>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>42.5</v>
       </c>
@@ -21029,7 +21086,7 @@
         <v>11.538</v>
       </c>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>49.6</v>
       </c>
@@ -21055,7 +21112,7 @@
         <v>11.59</v>
       </c>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>56.6</v>
       </c>
@@ -21081,7 +21138,7 @@
         <v>11.497</v>
       </c>
     </row>
-    <row r="915" spans="1:8">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>63.7</v>
       </c>
@@ -21107,7 +21164,7 @@
         <v>11.423</v>
       </c>
     </row>
-    <row r="916" spans="1:8">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>70.8</v>
       </c>
@@ -21133,7 +21190,7 @@
         <v>11.316000000000001</v>
       </c>
     </row>
-    <row r="917" spans="1:8">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>77.900000000000006</v>
       </c>
@@ -21159,7 +21216,7 @@
         <v>11.154</v>
       </c>
     </row>
-    <row r="918" spans="1:8">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>85</v>
       </c>
@@ -21185,7 +21242,7 @@
         <v>10.962</v>
       </c>
     </row>
-    <row r="919" spans="1:8">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>92.1</v>
       </c>
@@ -21211,7 +21268,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="920" spans="1:8">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>99.1</v>
       </c>
@@ -21237,35 +21294,33 @@
         <v>10.536</v>
       </c>
     </row>
-    <row r="921" spans="1:8">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>106.2</v>
       </c>
-      <c r="B921" t="s">
-        <v>46</v>
-      </c>
-      <c r="C921" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D921" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E921" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F921" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G921" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="922" spans="1:8">
+      <c r="B921">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C921">
+        <v>0</v>
+      </c>
+      <c r="D921">
+        <v>0</v>
+      </c>
+      <c r="E921">
+        <v>0</v>
+      </c>
+      <c r="F921">
+        <v>0</v>
+      </c>
+      <c r="G921">
+        <v>0</v>
+      </c>
+      <c r="H921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>113.3</v>
       </c>
@@ -21291,7 +21346,7 @@
         <v>9.952</v>
       </c>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>120.4</v>
       </c>
@@ -21317,7 +21372,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="924" spans="1:8">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>127.5</v>
       </c>
@@ -21343,7 +21398,7 @@
         <v>8.7690000000000001</v>
       </c>
     </row>
-    <row r="925" spans="1:8">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>134.5</v>
       </c>
@@ -21369,7 +21424,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="926" spans="1:8">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>141.6</v>
       </c>
@@ -21395,7 +21450,7 @@
         <v>7.2670000000000003</v>
       </c>
     </row>
-    <row r="927" spans="1:8">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>148.69999999999999</v>
       </c>
@@ -21421,7 +21476,7 @@
         <v>6.5030000000000001</v>
       </c>
     </row>
-    <row r="928" spans="1:8">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>155.80000000000001</v>
       </c>
@@ -21447,7 +21502,7 @@
         <v>5.6769999999999996</v>
       </c>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>162.9</v>
       </c>
@@ -21473,7 +21528,7 @@
         <v>4.9349999999999996</v>
       </c>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>169.9</v>
       </c>
@@ -21499,7 +21554,7 @@
         <v>4.1950000000000003</v>
       </c>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>177</v>
       </c>
@@ -21525,7 +21580,7 @@
         <v>3.4350000000000001</v>
       </c>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>184.1</v>
       </c>
@@ -21551,7 +21606,7 @@
         <v>2.637</v>
       </c>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>191.2</v>
       </c>
@@ -21577,7 +21632,7 @@
         <v>1.764</v>
       </c>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>198.3</v>
       </c>
@@ -21603,32 +21658,30 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>205.4</v>
       </c>
-      <c r="B935" t="s">
-        <v>47</v>
-      </c>
-      <c r="C935" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D935" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E935" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F935" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G935" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
+      <c r="B935">
+        <v>1.08</v>
+      </c>
+      <c r="C935">
+        <v>0</v>
+      </c>
+      <c r="D935">
+        <v>0</v>
+      </c>
+      <c r="E935">
+        <v>0</v>
+      </c>
+      <c r="F935">
+        <v>0</v>
+      </c>
+      <c r="G935">
+        <v>0</v>
+      </c>
+      <c r="H935">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21638,24 +21691,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
